--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8144193-4959-435D-8672-B761FE2D99DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CFFFC-7A3B-42A9-831F-ACF71E5073DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24984" yWindow="2820" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,6 +52,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,6 +68,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,6 +79,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,14 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>prefab1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab2.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,8 +159,57 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/ResAB/UnitPrefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>prefab3</t>
+  </si>
+  <si>
+    <t>Player1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Character</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>Bullet3.prefab</t>
   </si>
 </sst>
 </file>
@@ -181,6 +228,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -188,12 +236,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,7 +636,7 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
@@ -774,52 +824,127 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>ResUnit_1</v>
+        <v>ResUnit_Player1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I6" s="8" t="str">
         <f>G6&amp;"/"&amp;H6</f>
-        <v>Assets/ResAB/UnitPrefab/prefab1.prefab</v>
+        <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>ResUnit_2</v>
+        <v>ResUnit_Monster1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I7" s="8" t="str">
         <f>G7&amp;"/"&amp;H7</f>
-        <v>Assets/ResAB/UnitPrefab/prefab2.prefab</v>
+        <v>Assets/ResAB/UnitPrefab/Monster/Monster1.prefab</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>ResUnit_Bullet1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>G8&amp;"/"&amp;H8</f>
+        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="str">
+        <f>B9&amp;"_"&amp;C9</f>
+        <v>ResUnit_Bullet2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>G9&amp;"/"&amp;H9</f>
+        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="str">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>ResUnit_Bullet3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>G10&amp;"/"&amp;H10</f>
+        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet3.prefab</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698CFFFC-7A3B-42A9-831F-ACF71E5073DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988942D-5A3F-42E3-BBFA-499D07624B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2304" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -210,6 +210,113 @@
   </si>
   <si>
     <t>Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>SceneEffectNone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneEffectNone.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/SceneEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower</t>
+  </si>
+  <si>
+    <t>MachineGunTower_0.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoverboss.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower1</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Character</t>
+  </si>
+  <si>
+    <t>HeadQuarter.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadQuarter1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_HeadQuarter1</t>
+  </si>
+  <si>
+    <t>MachineGunTower_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyPylon_2</t>
+  </si>
+  <si>
+    <t>LaserTower_0</t>
+  </si>
+  <si>
+    <t>RocketTower_1</t>
+  </si>
+  <si>
+    <t>RocketTower_1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserTower_0.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyPylon_2.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletRocketProjectile_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketProjectile_1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoverboss</t>
+  </si>
+  <si>
+    <t>Hoverbuggy</t>
+  </si>
+  <si>
+    <t>Hovercopter</t>
+  </si>
+  <si>
+    <t>Hovertank</t>
+  </si>
+  <si>
+    <t>ResUnit_Hoverboss</t>
+  </si>
+  <si>
+    <t>ResUnit_Hoverbuggy</t>
+  </si>
+  <si>
+    <t>ResUnit_Hovercopter</t>
+  </si>
+  <si>
+    <t>ResUnit_Hovertank</t>
+  </si>
+  <si>
+    <t>Hoverbuggy.prefab</t>
+  </si>
+  <si>
+    <t>Hovercopter.prefab</t>
+  </si>
+  <si>
+    <t>Hovertank.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,16 +730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
@@ -830,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D12" si="0">B6&amp;"_"&amp;C6</f>
         <v>ResUnit_Player1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -843,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f>G6&amp;"/"&amp;H6</f>
+        <f t="shared" ref="I6:I12" si="1">G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
       </c>
     </row>
@@ -855,7 +962,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>ResUnit_Monster1</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -868,7 +975,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>G7&amp;"/"&amp;H7</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/Monster/Monster1.prefab</v>
       </c>
     </row>
@@ -880,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>ResUnit_Bullet1</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -893,7 +1000,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="8" t="str">
-        <f>G8&amp;"/"&amp;H8</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet1.prefab</v>
       </c>
     </row>
@@ -905,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>ResUnit_Bullet2</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -918,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>G9&amp;"/"&amp;H9</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet2.prefab</v>
       </c>
     </row>
@@ -930,7 +1037,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="str">
-        <f>B10&amp;"_"&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>ResUnit_Bullet3</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -943,8 +1050,283 @@
         <v>32</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f>G10&amp;"/"&amp;H10</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet3.prefab</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ResUnit_SceneEffectNone</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/UnitPrefab/SceneEffect/SceneEffectNone.prefab</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ResUnit_HeadQuarter1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/UnitPrefab/Character/HeadQuarter.prefab</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D17" si="2">B13&amp;"_"&amp;C13</f>
+        <v>ResUnit_MachineGunTower_0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" ref="I13:I17" si="3">G13&amp;"/"&amp;H13</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/MachineGunTower_0.prefab</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D15" si="4">B14&amp;"_"&amp;C14</f>
+        <v>ResUnit_EnergyPylon_2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f t="shared" ref="I14:I15" si="5">G14&amp;"/"&amp;H14</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/EnergyPylon_2.prefab</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_LaserTower_0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/LaserTower_0.prefab</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16" si="6">B16&amp;"_"&amp;C16</f>
+        <v>ResUnit_RocketTower_1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f t="shared" ref="I16" si="7">G16&amp;"/"&amp;H16</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/RocketTower_1.prefab</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>ResUnit_BulletRocketProjectile_1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/RocketProjectile_1.prefab</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>ResUnit_Hoverboss</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>G18&amp;"/"&amp;H18</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Hoverboss.prefab</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D21" si="8">B19&amp;"_"&amp;C19</f>
+        <v>ResUnit_Hoverbuggy</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f t="shared" ref="I19:I21" si="9">G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Hoverbuggy.prefab</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="8"/>
+        <v>ResUnit_Hovercopter</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Hovercopter.prefab</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="8"/>
+        <v>ResUnit_Hovertank</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Hovertank.prefab</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988942D-5A3F-42E3-BBFA-499D07624B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B45247-552F-4DDE-BF89-6BCAF2C29AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2304" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -227,14 +227,6 @@
     <t>Assets/ResAB/UnitPrefab/Tower</t>
   </si>
   <si>
-    <t>MachineGunTower_0.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hoverboss.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResUnit_Tower1</t>
   </si>
   <si>
@@ -252,31 +244,6 @@
     <t>ResUnit_HeadQuarter1</t>
   </si>
   <si>
-    <t>MachineGunTower_0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyPylon_2</t>
-  </si>
-  <si>
-    <t>LaserTower_0</t>
-  </si>
-  <si>
-    <t>RocketTower_1</t>
-  </si>
-  <si>
-    <t>RocketTower_1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserTower_0.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyPylon_2.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletRocketProjectile_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -285,18 +252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hoverboss</t>
-  </si>
-  <si>
-    <t>Hoverbuggy</t>
-  </si>
-  <si>
-    <t>Hovercopter</t>
-  </si>
-  <si>
-    <t>Hovertank</t>
-  </si>
-  <si>
     <t>ResUnit_Hoverboss</t>
   </si>
   <si>
@@ -309,13 +264,55 @@
     <t>ResUnit_Hovertank</t>
   </si>
   <si>
-    <t>Hoverbuggy.prefab</t>
-  </si>
-  <si>
-    <t>Hovercopter.prefab</t>
-  </si>
-  <si>
-    <t>Hovertank.prefab</t>
+    <t>Solo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solo1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle1.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common1</t>
+  </si>
+  <si>
+    <t>Quick1</t>
+  </si>
+  <si>
+    <t>Tank1</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>MonsterCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCall.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -742,7 +739,7 @@
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.21875" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
@@ -937,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D12" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D13" si="0">B6&amp;"_"&amp;C6</f>
         <v>ResUnit_Player1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -950,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="shared" ref="I6:I12" si="1">G6&amp;"/"&amp;H6</f>
+        <f t="shared" ref="I6:I13" si="1">G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
       </c>
     </row>
@@ -1084,23 +1081,23 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D12" si="2">B12&amp;"_"&amp;C12</f>
         <v>ResUnit_HeadQuarter1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I12" si="3">G12&amp;"/"&amp;H12</f>
         <v>Assets/ResAB/UnitPrefab/Character/HeadQuarter.prefab</v>
       </c>
     </row>
@@ -1109,24 +1106,22 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:D17" si="2">B13&amp;"_"&amp;C13</f>
-        <v>ResUnit_MachineGunTower_0</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>ResUnit_MonsterCall</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f t="shared" ref="I13:I17" si="3">G13&amp;"/"&amp;H13</f>
-        <v>Assets/ResAB/UnitPrefab/Tower/MachineGunTower_0.prefab</v>
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/UnitPrefab/Character/MonsterCall.prefab</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1134,24 +1129,24 @@
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D15" si="4">B14&amp;"_"&amp;C14</f>
-        <v>ResUnit_EnergyPylon_2</v>
+        <f t="shared" ref="D14:D18" si="4">B14&amp;"_"&amp;C14</f>
+        <v>ResUnit_Solo1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f t="shared" ref="I14:I15" si="5">G14&amp;"/"&amp;H14</f>
-        <v>Assets/ResAB/UnitPrefab/Tower/EnergyPylon_2.prefab</v>
+        <f t="shared" ref="I14:I18" si="5">G14&amp;"/"&amp;H14</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/Solo1.prefab</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1159,24 +1154,24 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_LaserTower_0</v>
+        <f t="shared" ref="D15:D16" si="6">B15&amp;"_"&amp;C15</f>
+        <v>ResUnit_Aoe1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/LaserTower_0.prefab</v>
+        <f t="shared" ref="I15:I16" si="7">G15&amp;"/"&amp;H15</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/Aoe1.prefab</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1184,24 +1179,24 @@
         <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ref="D16" si="6">B16&amp;"_"&amp;C16</f>
-        <v>ResUnit_RocketTower_1</v>
+        <f t="shared" si="6"/>
+        <v>ResUnit_Line1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f t="shared" ref="I16" si="7">G16&amp;"/"&amp;H16</f>
-        <v>Assets/ResAB/UnitPrefab/Tower/RocketTower_1.prefab</v>
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/Line1.prefab</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1212,21 +1207,21 @@
         <v>51</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>ResUnit_BulletRocketProjectile_1</v>
+        <f t="shared" ref="D17" si="8">B17&amp;"_"&amp;C17</f>
+        <v>ResUnit_Circle1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/RocketProjectile_1.prefab</v>
+        <f t="shared" ref="I17" si="9">G17&amp;"/"&amp;H17</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/Circle1.prefab</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1234,24 +1229,24 @@
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D18" t="str">
-        <f>B18&amp;"_"&amp;C18</f>
-        <v>ResUnit_Hoverboss</v>
+        <f t="shared" si="4"/>
+        <v>ResUnit_BulletRocketProjectile_1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f>G18&amp;"/"&amp;H18</f>
-        <v>Assets/ResAB/UnitPrefab/Monster/Hoverboss.prefab</v>
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/RocketProjectile_1.prefab</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1259,24 +1254,25 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D21" si="8">B19&amp;"_"&amp;C19</f>
-        <v>ResUnit_Hoverbuggy</v>
+        <f>B19&amp;"_"&amp;C19</f>
+        <v>ResUnit_Common1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>61</v>
+      <c r="H19" s="7" t="str">
+        <f>C19&amp;".prefab"</f>
+        <v>Common1.prefab</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" ref="I19:I21" si="9">G19&amp;"/"&amp;H19</f>
-        <v>Assets/ResAB/UnitPrefab/Monster/Hoverbuggy.prefab</v>
+        <f>G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Common1.prefab</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1284,24 +1280,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="8"/>
-        <v>ResUnit_Hovercopter</v>
+        <f t="shared" ref="D20:D22" si="10">B20&amp;"_"&amp;C20</f>
+        <v>ResUnit_Quick1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>62</v>
+      <c r="H20" s="7" t="str">
+        <f t="shared" ref="H20:H22" si="11">C20&amp;".prefab"</f>
+        <v>Quick1.prefab</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/UnitPrefab/Monster/Hovercopter.prefab</v>
+        <f t="shared" ref="I20:I22" si="12">G20&amp;"/"&amp;H20</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Quick1.prefab</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1309,24 +1306,51 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="8"/>
-        <v>ResUnit_Hovertank</v>
+        <f t="shared" si="10"/>
+        <v>ResUnit_Tank1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>63</v>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Tank1.prefab</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>Assets/ResAB/UnitPrefab/Monster/Hovertank.prefab</v>
+        <f t="shared" si="12"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Tank1.prefab</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="10"/>
+        <v>ResUnit_Attack1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Attack1.prefab</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="12"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Attack1.prefab</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B45247-552F-4DDE-BF89-6BCAF2C29AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE51DC9-0BEB-4689-B22D-16F73393EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="201">
   <si>
     <t>##var</t>
   </si>
@@ -133,77 +133,69 @@
   </si>
   <si>
     <t>res_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资源路径</t>
   </si>
   <si>
     <t>string#path=unity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>prefab1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ResUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>prefab3</t>
   </si>
   <si>
     <t>Player1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Monster1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bullet1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bullet2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bullet3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Bullet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Character</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Monster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Character1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bullet1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Bullet2.prefab</t>
@@ -213,15 +205,15 @@
   </si>
   <si>
     <t>SceneEffectNone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SceneEffectNone.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/SceneEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Tower</t>
@@ -234,22 +226,22 @@
   </si>
   <si>
     <t>HeadQuarter.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HeadQuarter1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ResUnit_HeadQuarter1</t>
   </si>
   <si>
     <t>BulletRocketProjectile_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RocketProjectile_1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ResUnit_Hoverboss</t>
@@ -264,36 +256,24 @@
     <t>ResUnit_Hovertank</t>
   </si>
   <si>
-    <t>Solo1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Aoe1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Solo1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Aoe1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Line1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Circle1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Common1</t>
@@ -309,23 +289,780 @@
   </si>
   <si>
     <t>MonsterCall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MonsterCall.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire Bat.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat Lord.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spider.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spider Toxin.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spider King.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egglet.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shade.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster3</t>
+  </si>
+  <si>
+    <t>Monster4</t>
+  </si>
+  <si>
+    <t>Monster5</t>
+  </si>
+  <si>
+    <t>Monster6</t>
+  </si>
+  <si>
+    <t>Monster7</t>
+  </si>
+  <si>
+    <t>Monster8</t>
+  </si>
+  <si>
+    <t>Monster9</t>
+  </si>
+  <si>
+    <t>多少速度时Move动作最自然</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveShowNatureSpeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerSolo1</t>
+  </si>
+  <si>
+    <t>TowerAoe1</t>
+  </si>
+  <si>
+    <t>TowerLine1</t>
+  </si>
+  <si>
+    <t>TowerCircle1</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ower_FireLine_1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ower_FireLine_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ower_FireLine_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Tower_DragCircle_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_DragCircle_2</t>
+  </si>
+  <si>
+    <t>Tower_DragCircle_3</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_2</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_3</t>
+  </si>
+  <si>
+    <t>Tower_Canon_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Canon_2</t>
+  </si>
+  <si>
+    <t>Tower_Canon_3</t>
+  </si>
+  <si>
+    <r>
+      <t>FE_moth_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FE_moth_2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FE_moth_3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_crossbow_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HM_crossbow_2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_crossbow_3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_poison_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HM_poison_2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_poison_3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>火图腾1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔2</t>
+  </si>
+  <si>
+    <t>毒雾塔3</t>
+  </si>
+  <si>
+    <t>弩箭塔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭塔2</t>
+  </si>
+  <si>
+    <t>弩箭塔3</t>
+  </si>
+  <si>
+    <t>弩箭塔子弹1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭塔子弹2</t>
+  </si>
+  <si>
+    <t>弩箭塔子弹3</t>
+  </si>
+  <si>
+    <t>加农炮1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮2</t>
+  </si>
+  <si>
+    <t>加农炮3</t>
+  </si>
+  <si>
+    <t>加农炮子弹1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮子弹2</t>
+  </si>
+  <si>
+    <t>加农炮子弹3</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_Bullet_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_Bullet_2</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_Bullet_3</t>
+  </si>
+  <si>
+    <t>Tower_Canon_Bullet_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Canon_Bullet_2</t>
+  </si>
+  <si>
+    <t>Tower_Canon_Bullet_3</t>
+  </si>
+  <si>
+    <t>FE_toothfish_bullet_1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE_toothfish_bullet_2.prefab</t>
+  </si>
+  <si>
+    <t>FE_toothfish_bullet_3.prefab</t>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_bullet1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_bullet2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_bullet3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>龙击炮1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮2</t>
+  </si>
+  <si>
+    <t>龙击炮3</t>
+  </si>
+  <si>
+    <t>雷电塔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔2</t>
+  </si>
+  <si>
+    <t>雷电塔3</t>
+  </si>
+  <si>
+    <t>冰魔塔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔2</t>
+  </si>
+  <si>
+    <t>冰魔塔3</t>
+  </si>
+  <si>
+    <t>加速塔1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔2</t>
+  </si>
+  <si>
+    <t>加速塔3</t>
+  </si>
+  <si>
+    <t>TowerDragon2</t>
+  </si>
+  <si>
+    <t>TowerDragon3</t>
+  </si>
+  <si>
+    <t>TowerDragon1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerElec1</t>
+  </si>
+  <si>
+    <t>TowerElec2</t>
+  </si>
+  <si>
+    <t>TowerElec3</t>
+  </si>
+  <si>
+    <t>TowerIce1</t>
+  </si>
+  <si>
+    <t>TowerIce2</t>
+  </si>
+  <si>
+    <t>TowerIce3</t>
+  </si>
+  <si>
+    <t>TowerTime1</t>
+  </si>
+  <si>
+    <t>TowerTime2</t>
+  </si>
+  <si>
+    <t>TowerTime3</t>
+  </si>
+  <si>
+    <t>TowerDragon1.prefab</t>
+  </si>
+  <si>
+    <t>TowerDragon2.prefab</t>
+  </si>
+  <si>
+    <t>TowerDragon3.prefab</t>
+  </si>
+  <si>
+    <t>TowerElec1.prefab</t>
+  </si>
+  <si>
+    <t>TowerElec2.prefab</t>
+  </si>
+  <si>
+    <t>TowerElec3.prefab</t>
+  </si>
+  <si>
+    <t>TowerIce1.prefab</t>
+  </si>
+  <si>
+    <t>TowerIce2.prefab</t>
+  </si>
+  <si>
+    <t>TowerIce3.prefab</t>
+  </si>
+  <si>
+    <t>TowerTime1.prefab</t>
+  </si>
+  <si>
+    <t>TowerTime2.prefab</t>
+  </si>
+  <si>
+    <t>TowerTime3.prefab</t>
+  </si>
+  <si>
+    <t>龙击炮1子弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮2子弹</t>
+  </si>
+  <si>
+    <t>龙击炮3子弹</t>
+  </si>
+  <si>
+    <t>冰魔塔1子弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔2子弹</t>
+  </si>
+  <si>
+    <t>冰魔塔3子弹</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet1</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet2</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet3</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet1</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet2</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet3</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet1.prefab</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet1.prefab</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet3.prefab</t>
+  </si>
+  <si>
+    <r>
+      <t>TowerDragon_Bullet2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>Observer.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,23 +1170,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -727,25 +1464,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,12 +1499,14 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -783,8 +1524,9 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -796,7 +1538,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2"/>
+      <c r="J2" s="3"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -814,8 +1556,9 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB2"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -830,12 +1573,14 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -853,8 +1598,9 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -868,7 +1614,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4"/>
+      <c r="J4" s="4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -886,8 +1632,9 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -902,12 +1649,14 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -925,436 +1674,1783 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D13" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
         <v>ResUnit_Player1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
+      <c r="G6" s="7">
+        <v>6</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" ref="I6:I13" si="1">G6&amp;"/"&amp;H6</f>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" ref="J6:J14" si="1">H6&amp;"/"&amp;I6</f>
         <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>ResUnit_Monster1</v>
+        <v>ResUnit_Bullet1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="J7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UnitPrefab/Monster/Monster1.prefab</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>ResUnit_Bullet1</v>
+        <v>ResUnit_Bullet2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="8" t="str">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet1.prefab</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>ResUnit_Bullet2</v>
+        <v>ResUnit_Bullet3</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/Bullet2.prefab</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>ResUnit_Bullet3</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="8" t="str">
+      <c r="I9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet3.prefab</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10" si="2">B10&amp;"_"&amp;C10</f>
+        <v>ResUnit_Observer</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" ref="J10" si="3">H10&amp;"/"&amp;I10</f>
+        <v>Assets/ResAB/UnitPrefab/Character/Observer.prefab</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>ResUnit_SceneEffectNone</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="8" t="str">
+        <v>33</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/SceneEffect/SceneEffectNone.prefab</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" si="2">B12&amp;"_"&amp;C12</f>
+        <f t="shared" ref="D12" si="4">B12&amp;"_"&amp;C12</f>
+        <v>ResUnit_Aoe1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" ref="J12" si="5">H12&amp;"/"&amp;I12</f>
+        <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13" si="6">B13&amp;"_"&amp;C13</f>
         <v>ResUnit_HeadQuarter1</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" ref="I12" si="3">G12&amp;"/"&amp;H12</f>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" ref="J13" si="7">H13&amp;"/"&amp;I13</f>
         <v>Assets/ResAB/UnitPrefab/Character/HeadQuarter.prefab</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="str">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>ResUnit_MonsterCall</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="8" t="str">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UnitPrefab/Character/MonsterCall.prefab</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D19" si="8">B15&amp;"_"&amp;C15</f>
+        <v>ResUnit_TowerSolo1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" ref="J15:J19" si="9">H15&amp;"/"&amp;I15</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/Solo1.prefab</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:D17" si="10">B16&amp;"_"&amp;C16</f>
+        <v>ResUnit_TowerAoe1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" ref="J16:J17" si="11">H16&amp;"/"&amp;I16</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/Aoe1.prefab</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="10"/>
+        <v>ResUnit_TowerLine1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/Line1.prefab</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18" si="12">B18&amp;"_"&amp;C18</f>
+        <v>ResUnit_TowerCircle1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" ref="J18" si="13">H18&amp;"/"&amp;I18</f>
+        <v>Assets/ResAB/UnitPrefab/Tower/Circle1.prefab</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="8"/>
+        <v>ResUnit_BulletRocketProjectile_1</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14:D18" si="4">B14&amp;"_"&amp;C14</f>
-        <v>ResUnit_Solo1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/RocketProjectile_1.prefab</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="str">
+        <f>B20&amp;"_"&amp;C20</f>
+        <v>ResUnit_Common1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f>C20&amp;".prefab"</f>
+        <v>Common1.prefab</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f>H20&amp;"/"&amp;I20</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Common1.prefab</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="8" t="str">
-        <f t="shared" ref="I14:I18" si="5">G14&amp;"/"&amp;H14</f>
-        <v>Assets/ResAB/UnitPrefab/Tower/Solo1.prefab</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D16" si="6">B15&amp;"_"&amp;C15</f>
-        <v>ResUnit_Aoe1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:D23" si="14">B21&amp;"_"&amp;C21</f>
+        <v>ResUnit_Quick1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" ref="I21:I23" si="15">C21&amp;".prefab"</f>
+        <v>Quick1.prefab</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" ref="J21:J23" si="16">H21&amp;"/"&amp;I21</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Quick1.prefab</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" ref="I15:I16" si="7">G15&amp;"/"&amp;H15</f>
-        <v>Assets/ResAB/UnitPrefab/Tower/Aoe1.prefab</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="6"/>
-        <v>ResUnit_Line1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="D22" t="str">
+        <f t="shared" si="14"/>
+        <v>ResUnit_Tank1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="7">
+        <v>6</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>Tank1.prefab</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Tank1.prefab</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/Line1.prefab</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17" si="8">B17&amp;"_"&amp;C17</f>
-        <v>ResUnit_Circle1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f t="shared" ref="I17" si="9">G17&amp;"/"&amp;H17</f>
-        <v>Assets/ResAB/UnitPrefab/Tower/Circle1.prefab</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_BulletRocketProjectile_1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/RocketProjectile_1.prefab</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="str">
-        <f>B19&amp;"_"&amp;C19</f>
-        <v>ResUnit_Common1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="7" t="str">
-        <f>C19&amp;".prefab"</f>
-        <v>Common1.prefab</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f>G19&amp;"/"&amp;H19</f>
-        <v>Assets/ResAB/UnitPrefab/Monster/Common1.prefab</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="D23" t="str">
+        <f t="shared" si="14"/>
+        <v>ResUnit_Attack1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>Attack1.prefab</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Attack1.prefab</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24" si="17">B24&amp;"_"&amp;C24</f>
+        <v>ResUnit_Monster1</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" ref="D20:D22" si="10">B20&amp;"_"&amp;C20</f>
-        <v>ResUnit_Quick1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" ref="H20:H22" si="11">C20&amp;".prefab"</f>
-        <v>Quick1.prefab</v>
-      </c>
-      <c r="I20" s="8" t="str">
-        <f t="shared" ref="I20:I22" si="12">G20&amp;"/"&amp;H20</f>
-        <v>Assets/ResAB/UnitPrefab/Monster/Quick1.prefab</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" ref="J24" si="18">H24&amp;"/"&amp;I24</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Bat.prefab</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:D68" si="19">B25&amp;"_"&amp;C25</f>
+        <v>ResUnit_Monster2</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="10"/>
-        <v>ResUnit_Tank1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>Tank1.prefab</v>
-      </c>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>Assets/ResAB/UnitPrefab/Monster/Tank1.prefab</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" ref="J25:J68" si="20">H25&amp;"/"&amp;I25</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Vampire Bat.prefab</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster3</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="10"/>
-        <v>ResUnit_Attack1</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>Attack1.prefab</v>
-      </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>Assets/ResAB/UnitPrefab/Monster/Attack1.prefab</v>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
+        <v>3</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Bat Lord.prefab</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster4</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Spider.prefab</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster5</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Spider Toxin.prefab</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster6</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
+        <v>6</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Spider King.prefab</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster7</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Egglet.prefab</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster8</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Shade.prefab</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Monster9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Monster/Shadow.prefab</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_FireLine_1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="7">
+        <v>6</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_1.prefab</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_FireLine_2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="7">
+        <v>6</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_2.prefab</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_FireLine_3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_3.prefab</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_DragCircle_1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_1.prefab</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_DragCircle_2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="7">
+        <v>6</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_2.prefab</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_DragCircle_3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="7">
+        <v>6</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_3.prefab</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_1</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="7">
+        <v>6</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_1.prefab</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_2</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="7">
+        <v>6</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_2.prefab</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_3</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="7">
+        <v>6</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_3.prefab</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_Bullet_1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_1.prefab</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_Bullet_2</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="7">
+        <v>6</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_2.prefab</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_Bullet_3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="7">
+        <v>6</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_3.prefab</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_1.prefab</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_2</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="7">
+        <v>6</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_2.prefab</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_3</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="7">
+        <v>6</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_3.prefab</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_Bullet_1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J48" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_Bullet_2</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="7">
+        <v>6</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J49" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_Bullet_3</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="7">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet3.prefab</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerDragon1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="7">
+        <v>6</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon1.prefab</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerDragon2</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="7">
+        <v>6</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J52" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon2.prefab</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerDragon3</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J53" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon3.prefab</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerElec1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="7">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J54" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec1.prefab</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerElec2</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="7">
+        <v>6</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec2.prefab</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerElec3</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="7">
+        <v>6</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec3.prefab</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce1</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="7">
+        <v>6</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce1.prefab</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce2</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="7">
+        <v>6</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J58" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce2.prefab</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce3</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="7">
+        <v>6</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce3.prefab</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerTime1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="7">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime1.prefab</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerTime2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="7">
+        <v>6</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J61" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime2.prefab</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerTime3</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime3.prefab</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerDragon_Bullet1</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" s="7">
+        <v>6</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>192</v>
+      </c>
+      <c r="J63" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerDragon_Bullet2</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="7">
+        <v>6</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerDragon_Bullet3</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" s="7">
+        <v>6</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>193</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet3.prefab</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce_Bullet1</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" s="7">
+        <v>6</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>194</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce_Bullet2</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" s="7">
+        <v>6</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce_Bullet3</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="7">
+        <v>6</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet3.prefab</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE51DC9-0BEB-4689-B22D-16F73393EF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B0C9B-B708-4C17-ADCD-79E19AB90573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
   <si>
     <t>##var</t>
   </si>
@@ -1027,6 +1016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1043,6 +1033,18 @@
   </si>
   <si>
     <t>Observer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1464,27 +1466,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1528,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1560,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1602,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1636,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1678,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -1733,7 +1735,7 @@
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet1.prefab</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet2.prefab</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>Assets/ResAB/UnitPrefab/Bullet/Bullet3.prefab</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>Assets/ResAB/UnitPrefab/Character/Observer.prefab</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>Assets/ResAB/UnitPrefab/SceneEffect/SceneEffectNone.prefab</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>Assets/ResAB/UnitPrefab/Character/Character1.prefab</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>Assets/ResAB/UnitPrefab/Character/HeadQuarter.prefab</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>Assets/ResAB/UnitPrefab/Character/MonsterCall.prefab</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>Assets/ResAB/UnitPrefab/Tower/Solo1.prefab</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>Assets/ResAB/UnitPrefab/Tower/Aoe1.prefab</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>Assets/ResAB/UnitPrefab/Tower/Line1.prefab</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>Assets/ResAB/UnitPrefab/Tower/Circle1.prefab</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>Assets/ResAB/UnitPrefab/Bullet/RocketProjectile_1.prefab</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Common1.prefab</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Quick1.prefab</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Tank1.prefab</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Attack1.prefab</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Bat.prefab</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>75</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:D68" si="19">B25&amp;"_"&amp;C25</f>
+        <f t="shared" ref="D25:D69" si="19">B25&amp;"_"&amp;C25</f>
         <v>ResUnit_Monster2</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -2237,11 +2239,11 @@
         <v>67</v>
       </c>
       <c r="J25" s="8" t="str">
-        <f t="shared" ref="J25:J68" si="20">H25&amp;"/"&amp;I25</f>
+        <f t="shared" ref="J25:J69" si="20">H25&amp;"/"&amp;I25</f>
         <v>Assets/ResAB/UnitPrefab/Monster/Vampire Bat.prefab</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Bat Lord.prefab</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Spider.prefab</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Spider Toxin.prefab</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Spider King.prefab</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>17</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Egglet.prefab</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>17</v>
       </c>
@@ -2413,7 +2415,7 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Shade.prefab</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>17</v>
       </c>
@@ -2441,47 +2443,48 @@
         <v>Assets/ResAB/UnitPrefab/Monster/Shadow.prefab</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" t="str">
+        <f>B33&amp;"_"&amp;C33</f>
+        <v>ResUnit_Monster10</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f>H33&amp;"/"&amp;I33</f>
+        <v>Assets/ResAB/UnitPrefab/Monster/Seed1.prefab</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="19"/>
         <v>ResUnit_Tower_FireLine_1</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G33" s="7">
-        <v>6</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_1.prefab</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="19"/>
-        <v>ResUnit_Tower_FireLine_2</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G34" s="7">
         <v>6</v>
@@ -2490,26 +2493,26 @@
         <v>34</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_2.prefab</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_1.prefab</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_FireLine_3</v>
+        <v>ResUnit_Tower_FireLine_2</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G35" s="7">
         <v>6</v>
@@ -2518,26 +2521,26 @@
         <v>34</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_3.prefab</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_2.prefab</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_DragCircle_1</v>
+        <v>ResUnit_Tower_FireLine_3</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="7">
         <v>6</v>
@@ -2546,26 +2549,26 @@
         <v>34</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J36" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_1.prefab</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/FE_moth_3.prefab</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_DragCircle_2</v>
+        <v>ResUnit_Tower_DragCircle_1</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="7">
         <v>6</v>
@@ -2574,26 +2577,26 @@
         <v>34</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J37" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_2.prefab</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_1.prefab</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_DragCircle_3</v>
+        <v>ResUnit_Tower_DragCircle_2</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="7">
         <v>6</v>
@@ -2602,26 +2605,26 @@
         <v>34</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J38" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_3.prefab</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_2.prefab</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_ArrowSolo_1</v>
+        <v>ResUnit_Tower_DragCircle_3</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" s="7">
         <v>6</v>
@@ -2630,26 +2633,26 @@
         <v>34</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J39" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_1.prefab</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_poison_3.prefab</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_ArrowSolo_2</v>
+        <v>ResUnit_Tower_ArrowSolo_1</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G40" s="7">
         <v>6</v>
@@ -2658,26 +2661,26 @@
         <v>34</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J40" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_2.prefab</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_1.prefab</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_ArrowSolo_3</v>
+        <v>ResUnit_Tower_ArrowSolo_2</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G41" s="7">
         <v>6</v>
@@ -2686,54 +2689,54 @@
         <v>34</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_2.prefab</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_3</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J41" s="8" t="str">
+      <c r="J42" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_3.prefab</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="7" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="19"/>
         <v>ResUnit_Tower_ArrowSolo_Bullet_1</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G42" s="7">
-        <v>6</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J42" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_1.prefab</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="19"/>
-        <v>ResUnit_Tower_ArrowSolo_Bullet_2</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G43" s="7">
         <v>6</v>
@@ -2742,26 +2745,26 @@
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J43" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_2.prefab</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_1.prefab</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_ArrowSolo_Bullet_3</v>
+        <v>ResUnit_Tower_ArrowSolo_Bullet_2</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="7">
         <v>6</v>
@@ -2770,54 +2773,54 @@
         <v>24</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_2.prefab</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_ArrowSolo_Bullet_3</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="8" t="str">
+      <c r="J45" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_3.prefab</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="7" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="19"/>
         <v>ResUnit_Tower_Canon_1</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G45" s="7">
-        <v>6</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_1.prefab</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="19"/>
-        <v>ResUnit_Tower_Canon_2</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G46" s="7">
         <v>6</v>
@@ -2826,26 +2829,26 @@
         <v>34</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J46" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_2.prefab</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_1.prefab</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_Canon_3</v>
+        <v>ResUnit_Tower_Canon_2</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="7">
         <v>6</v>
@@ -2854,54 +2857,54 @@
         <v>34</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_2.prefab</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_3</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="8" t="str">
+      <c r="J48" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Assets/ResAB/UnitPrefab/Tower/HM_cannon_3.prefab</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="7" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="19"/>
         <v>ResUnit_Tower_Canon_Bullet_1</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G48" s="7">
-        <v>6</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J48" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet1.prefab</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="19"/>
-        <v>ResUnit_Tower_Canon_Bullet_2</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G49" s="7">
         <v>6</v>
@@ -2910,26 +2913,26 @@
         <v>24</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J49" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet2.prefab</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_Tower_Canon_Bullet_3</v>
+        <v>ResUnit_Tower_Canon_Bullet_2</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="7">
         <v>6</v>
@@ -2938,54 +2941,54 @@
         <v>24</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_Tower_Canon_Bullet_3</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="7">
+        <v>6</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J50" s="8" t="str">
+      <c r="J51" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet3.prefab</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="7" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="19"/>
         <v>ResUnit_TowerDragon1</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G51" s="7">
-        <v>6</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J51" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon1.prefab</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="19"/>
-        <v>ResUnit_TowerDragon2</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G52" s="7">
         <v>6</v>
@@ -2994,26 +2997,26 @@
         <v>34</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J52" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon2.prefab</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon1.prefab</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerDragon3</v>
+        <v>ResUnit_TowerDragon2</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" s="7">
         <v>6</v>
@@ -3022,26 +3025,26 @@
         <v>34</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J53" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon3.prefab</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon2.prefab</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerElec1</v>
+        <v>ResUnit_TowerDragon3</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G54" s="7">
         <v>6</v>
@@ -3050,26 +3053,26 @@
         <v>34</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J54" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec1.prefab</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerDragon3.prefab</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerElec2</v>
+        <v>ResUnit_TowerElec1</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="7">
         <v>6</v>
@@ -3078,26 +3081,26 @@
         <v>34</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J55" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec2.prefab</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec1.prefab</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerElec3</v>
+        <v>ResUnit_TowerElec2</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G56" s="7">
         <v>6</v>
@@ -3106,26 +3109,26 @@
         <v>34</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J56" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec3.prefab</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec2.prefab</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerIce1</v>
+        <v>ResUnit_TowerElec3</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G57" s="7">
         <v>6</v>
@@ -3134,26 +3137,26 @@
         <v>34</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J57" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce1.prefab</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerElec3.prefab</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerIce2</v>
+        <v>ResUnit_TowerIce1</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G58" s="7">
         <v>6</v>
@@ -3162,26 +3165,26 @@
         <v>34</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J58" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce2.prefab</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce1.prefab</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerIce3</v>
+        <v>ResUnit_TowerIce2</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G59" s="7">
         <v>6</v>
@@ -3190,26 +3193,26 @@
         <v>34</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J59" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce3.prefab</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce2.prefab</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerTime1</v>
+        <v>ResUnit_TowerIce3</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" s="7">
         <v>6</v>
@@ -3218,26 +3221,26 @@
         <v>34</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J60" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime1.prefab</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerIce3.prefab</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerTime2</v>
+        <v>ResUnit_TowerTime1</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G61" s="7">
         <v>6</v>
@@ -3246,26 +3249,26 @@
         <v>34</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J61" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime2.prefab</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime1.prefab</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerTime3</v>
+        <v>ResUnit_TowerTime2</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G62" s="7">
         <v>6</v>
@@ -3274,54 +3277,54 @@
         <v>34</v>
       </c>
       <c r="I62" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Tower/TowerTime2.prefab</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerTime3</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="7">
+        <v>6</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J62" s="8" t="str">
+      <c r="J63" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Assets/ResAB/UnitPrefab/Tower/TowerTime3.prefab</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
         <v>186</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D64" t="str">
         <f t="shared" si="19"/>
         <v>ResUnit_TowerDragon_Bullet1</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G63" s="7">
-        <v>6</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" t="s">
-        <v>192</v>
-      </c>
-      <c r="J63" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet1.prefab</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="19"/>
-        <v>ResUnit_TowerDragon_Bullet2</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="G64" s="7">
         <v>6</v>
@@ -3329,27 +3332,27 @@
       <c r="H64" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>197</v>
+      <c r="I64" t="s">
+        <v>192</v>
       </c>
       <c r="J64" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet2.prefab</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerDragon_Bullet3</v>
+        <v>ResUnit_TowerDragon_Bullet2</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="7">
         <v>6</v>
@@ -3357,27 +3360,27 @@
       <c r="H65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I65" t="s">
-        <v>193</v>
+      <c r="I65" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="J65" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet3.prefab</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerIce_Bullet1</v>
+        <v>ResUnit_TowerDragon_Bullet3</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G66" s="7">
         <v>6</v>
@@ -3386,26 +3389,26 @@
         <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J66" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet1.prefab</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerDragon_Bullet3.prefab</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerIce_Bullet2</v>
+        <v>ResUnit_TowerIce_Bullet1</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G67" s="7">
         <v>6</v>
@@ -3414,26 +3417,26 @@
         <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J67" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet2.prefab</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet1.prefab</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="19"/>
-        <v>ResUnit_TowerIce_Bullet3</v>
+        <v>ResUnit_TowerIce_Bullet2</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G68" s="7">
         <v>6</v>
@@ -3442,9 +3445,37 @@
         <v>24</v>
       </c>
       <c r="I68" t="s">
+        <v>195</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet2.prefab</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="19"/>
+        <v>ResUnit_TowerIce_Bullet3</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="7">
+        <v>6</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
         <v>196</v>
       </c>
-      <c r="J68" s="8" t="str">
+      <c r="J69" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet3.prefab</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE87F451-790C-4AB3-BC66-517FD76593F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27369AB6-5713-47B9-BF2E-3A548BD4BC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="681">
   <si>
     <t>##var</t>
   </si>
@@ -2095,6 +2095,194 @@
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Monster/Niao3.prefab</t>
+  </si>
+  <si>
+    <t>炸弹1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹2</t>
+  </si>
+  <si>
+    <t>炸弹3</t>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResUnit_Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.prefab</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/TowerBomb1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/TowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/TowerBomb3.prefab</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2229,6 +2417,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2506,11 +2697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A170:XFD172"/>
+      <pane ySplit="5" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4971,7 +5162,7 @@
         <v>209</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F119" t="s">
         <v>34</v>
@@ -4991,7 +5182,7 @@
         <v>210</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
@@ -5011,7 +5202,7 @@
         <v>211</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F121" t="s">
         <v>34</v>
@@ -5024,91 +5215,74 @@
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>213</v>
+      <c r="B122" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>669</v>
       </c>
       <c r="E122">
         <v>6</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>561</v>
+        <v>34</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>675</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>562</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>215</v>
+      <c r="B123" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>670</v>
       </c>
       <c r="E123">
         <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>563</v>
+        <v>34</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>676</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>564</v>
+        <v>679</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>217</v>
+      <c r="B124" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>671</v>
       </c>
       <c r="E124">
         <v>6</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>565</v>
+        <v>34</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>677</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>567</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>568</v>
-      </c>
+      <c r="H125" s="5"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E126">
         <v>6</v>
@@ -5117,18 +5291,18 @@
         <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E127">
         <v>6</v>
@@ -5137,18 +5311,18 @@
         <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E128">
         <v>6</v>
@@ -5157,18 +5331,18 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -5177,18 +5351,18 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -5197,18 +5371,18 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E131">
         <v>6</v>
@@ -5217,18 +5391,18 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -5237,18 +5411,18 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E133">
         <v>6</v>
@@ -5257,18 +5431,18 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E134">
         <v>6</v>
@@ -5277,18 +5451,18 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E135">
         <v>6</v>
@@ -5297,18 +5471,18 @@
         <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -5317,18 +5491,18 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E137">
         <v>6</v>
@@ -5337,18 +5511,18 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E138">
         <v>6</v>
@@ -5357,18 +5531,18 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -5377,18 +5551,18 @@
         <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E140">
         <v>6</v>
@@ -5397,18 +5571,18 @@
         <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E141">
         <v>6</v>
@@ -5417,18 +5591,18 @@
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -5437,18 +5611,18 @@
         <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E143">
         <v>6</v>
@@ -5457,18 +5631,18 @@
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E144">
         <v>6</v>
@@ -5477,18 +5651,18 @@
         <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E145">
         <v>6</v>
@@ -5497,18 +5671,18 @@
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E146">
         <v>6</v>
@@ -5517,18 +5691,18 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -5537,18 +5711,18 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -5557,18 +5731,18 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E149">
         <v>6</v>
@@ -5577,18 +5751,18 @@
         <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E150">
         <v>6</v>
@@ -5597,18 +5771,18 @@
         <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E151">
         <v>6</v>
@@ -5617,98 +5791,98 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>272</v>
-      </c>
-      <c r="C152" t="s">
-        <v>45</v>
+        <v>264</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" t="s">
-        <v>47</v>
+        <v>266</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="E153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>274</v>
-      </c>
-      <c r="C154" t="s">
-        <v>49</v>
+        <v>268</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>275</v>
-      </c>
-      <c r="C155" t="s">
-        <v>51</v>
+        <v>270</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C156" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -5717,18 +5891,18 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C157" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E157">
         <v>3</v>
@@ -5737,18 +5911,18 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C158" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E158">
         <v>3</v>
@@ -5757,18 +5931,18 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C159" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -5777,38 +5951,38 @@
         <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C160" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F160" t="s">
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C161" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E161">
         <v>3</v>
@@ -5817,18 +5991,18 @@
         <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C162" t="s">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="E162">
         <v>3</v>
@@ -5837,18 +6011,18 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C163" t="s">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="E163">
         <v>3</v>
@@ -5857,38 +6031,38 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C164" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
         <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C165" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="E165">
         <v>3</v>
@@ -5897,18 +6071,18 @@
         <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C166" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -5917,18 +6091,18 @@
         <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C167" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E167">
         <v>3</v>
@@ -5937,18 +6111,18 @@
         <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C168" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -5957,18 +6131,18 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C169" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E169">
         <v>3</v>
@@ -5977,18 +6151,18 @@
         <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>660</v>
+      <c r="B170" t="s">
+        <v>290</v>
+      </c>
+      <c r="C170" t="s">
+        <v>291</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -5996,19 +6170,19 @@
       <c r="F170" t="s">
         <v>41</v>
       </c>
-      <c r="G170" s="7" t="s">
-        <v>663</v>
+      <c r="G170" t="s">
+        <v>649</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>661</v>
+      <c r="B171" t="s">
+        <v>292</v>
+      </c>
+      <c r="C171" t="s">
+        <v>293</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -6016,19 +6190,19 @@
       <c r="F171" t="s">
         <v>41</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>664</v>
+      <c r="G171" t="s">
+        <v>651</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B172" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>662</v>
+      <c r="B172" t="s">
+        <v>294</v>
+      </c>
+      <c r="C172" t="s">
+        <v>295</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -6036,10 +6210,90 @@
       <c r="F172" t="s">
         <v>41</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="G172" t="s">
+        <v>653</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>296</v>
+      </c>
+      <c r="C173" t="s">
+        <v>297</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173" t="s">
+        <v>41</v>
+      </c>
+      <c r="G173" t="s">
+        <v>655</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>41</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H176" s="5" t="s">
         <v>668</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27369AB6-5713-47B9-BF2E-3A548BD4BC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB8C5B-6E9C-4D83-9093-30CA01545265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="766">
   <si>
     <t>##var</t>
   </si>
@@ -2094,9 +2094,6 @@
     <t>Assets/ResAB/UnitPrefab/Monster/Niao2.prefab</t>
   </si>
   <si>
-    <t>Assets/ResAB/UnitPrefab/Monster/Niao3.prefab</t>
-  </si>
-  <si>
     <t>炸弹1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2195,6 +2192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2222,6 +2220,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2258,6 +2257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2283,6 +2283,359 @@
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>aoe1 prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Aoe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Aoe/Aoe1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Rou1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Rou2</t>
+  </si>
+  <si>
+    <t>ResUnit_Rou3</t>
+  </si>
+  <si>
+    <t>ResUnit_XueRen1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_XueRen2</t>
+  </si>
+  <si>
+    <t>ResUnit_XueRen3</t>
+  </si>
+  <si>
+    <t>ResUnit_WuGui1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_WuGui2</t>
+  </si>
+  <si>
+    <t>ResUnit_WuGui3</t>
+  </si>
+  <si>
+    <t>肉飞龙1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉飞龙2</t>
+  </si>
+  <si>
+    <t>肉飞龙3</t>
+  </si>
+  <si>
+    <t>雪人1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人2</t>
+  </si>
+  <si>
+    <t>雪人3</t>
+  </si>
+  <si>
+    <t>乌龟1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟2</t>
+  </si>
+  <si>
+    <t>乌龟3</t>
+  </si>
+  <si>
+    <t>Rou1.prefab</t>
+  </si>
+  <si>
+    <t>Rou2.prefab</t>
+  </si>
+  <si>
+    <t>Rou3.prefab</t>
+  </si>
+  <si>
+    <t>XueRen1.prefab</t>
+  </si>
+  <si>
+    <t>XueRen2.prefab</t>
+  </si>
+  <si>
+    <t>XueRen3.prefab</t>
+  </si>
+  <si>
+    <t>WuGui1.prefab</t>
+  </si>
+  <si>
+    <t>WuGui2.prefab</t>
+  </si>
+  <si>
+    <t>WuGui3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/Niao3.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/Rou1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/Rou2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/Rou3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/XueRen1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/XueRen2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/XueRen3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/WuGui1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/WuGui2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Monster/WuGui3.prefab</t>
+  </si>
+  <si>
+    <t>魔像1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔像2</t>
+  </si>
+  <si>
+    <t>魔像3</t>
+  </si>
+  <si>
+    <t>ResUnit_Golem1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Golem2</t>
+  </si>
+  <si>
+    <t>ResUnit_Golem3</t>
+  </si>
+  <si>
+    <t>Golem1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golem2.prefab</t>
+  </si>
+  <si>
+    <t>Golem3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Golem1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Golem2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Golem3.prefab</t>
+  </si>
+  <si>
+    <t>ResUnit_BulletFire1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_BulletFire2</t>
+  </si>
+  <si>
+    <t>ResUnit_BulletFire3</t>
+  </si>
+  <si>
+    <t>火图腾1子弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾2子弹</t>
+  </si>
+  <si>
+    <t>火图腾3子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>Fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Bullet1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Bullet2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Bullet3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/Fire_Bullet1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/Fire_Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/Fire_Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>ResUnit_BulletMagicBall1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_BulletMagicBall2</t>
+  </si>
+  <si>
+    <t>ResUnit_BulletMagicBall3</t>
+  </si>
+  <si>
+    <t>MagicBall_Bullet1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBall_Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>MagicBall_Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/MagicBall_Bullet1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/MagicBall_Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/MagicBall_Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet1</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/TowerFire_Bullet1.prefab</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet2</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/TowerFire_Bullet2.prefab</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerFire_Bullet3</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/TowerFire_Bullet3.prefab</t>
+  </si>
+  <si>
+    <t>水晶塔1子弹</t>
+  </si>
+  <si>
+    <t>水晶塔2子弹</t>
+  </si>
+  <si>
+    <t>水晶塔3子弹</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2697,11 +3050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z176"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
+      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3021,20 +3374,20 @@
       <c r="B12" t="s">
         <v>315</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
+      <c r="D12" s="7" t="s">
+        <v>680</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
+      <c r="F12" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>304</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -3535,31 +3888,14 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>372</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>373</v>
-      </c>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -3568,18 +3904,18 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -3588,18 +3924,18 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -3608,18 +3944,18 @@
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -3628,18 +3964,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -3648,18 +3984,18 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -3668,18 +4004,18 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -3688,18 +4024,18 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -3708,38 +4044,38 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -3748,18 +4084,18 @@
         <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -3768,38 +4104,38 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -3808,18 +4144,18 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -3828,38 +4164,38 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -3868,18 +4204,18 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -3888,38 +4224,38 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -3928,18 +4264,18 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -3948,18 +4284,18 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -3968,18 +4304,18 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -3988,18 +4324,18 @@
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -4008,18 +4344,18 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -4028,18 +4364,18 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -4048,18 +4384,18 @@
         <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -4068,18 +4404,18 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -4088,18 +4424,18 @@
         <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -4108,18 +4444,18 @@
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -4128,38 +4464,38 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -4168,18 +4504,18 @@
         <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -4188,18 +4524,18 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -4208,18 +4544,18 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E72">
         <v>6</v>
@@ -4228,18 +4564,18 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E73">
         <v>6</v>
@@ -4248,98 +4584,98 @@
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E74">
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>446</v>
+        <v>754</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>762</v>
       </c>
       <c r="E75">
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" t="s">
-        <v>140</v>
+        <v>22</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>765</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>447</v>
+        <v>755</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>448</v>
+        <v>756</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>763</v>
       </c>
       <c r="E76">
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>142</v>
+        <v>757</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>449</v>
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>450</v>
+        <v>759</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>764</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>144</v>
+        <v>760</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>451</v>
+        <v>761</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E78">
         <v>6</v>
@@ -4348,18 +4684,18 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -4368,18 +4704,18 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E80">
         <v>6</v>
@@ -4388,18 +4724,18 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E81">
         <v>6</v>
@@ -4408,18 +4744,18 @@
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E82">
         <v>6</v>
@@ -4428,18 +4764,18 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E83">
         <v>6</v>
@@ -4448,18 +4784,18 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -4468,18 +4804,18 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E85">
         <v>6</v>
@@ -4488,18 +4824,18 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E86">
         <v>6</v>
@@ -4508,18 +4844,18 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E87">
         <v>6</v>
@@ -4528,18 +4864,18 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E88">
         <v>6</v>
@@ -4548,18 +4884,18 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E89">
         <v>6</v>
@@ -4568,18 +4904,18 @@
         <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E90">
         <v>6</v>
@@ -4588,18 +4924,18 @@
         <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E91">
         <v>6</v>
@@ -4608,18 +4944,18 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -4628,18 +4964,18 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E93">
         <v>6</v>
@@ -4648,18 +4984,18 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -4668,18 +5004,18 @@
         <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -4688,18 +5024,18 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -4708,18 +5044,18 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -4728,18 +5064,18 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -4748,18 +5084,18 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -4768,18 +5104,18 @@
         <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -4788,18 +5124,18 @@
         <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -4808,18 +5144,18 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>499</v>
+        <v>184</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C102" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -4828,18 +5164,18 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>502</v>
+        <v>186</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C103" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -4848,18 +5184,18 @@
         <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>505</v>
+        <v>188</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E104">
         <v>6</v>
@@ -4868,18 +5204,18 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>508</v>
+        <v>190</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -4888,18 +5224,18 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E106">
         <v>6</v>
@@ -4908,18 +5244,18 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E107">
         <v>6</v>
@@ -4928,18 +5264,18 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -4948,18 +5284,18 @@
         <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E109">
         <v>6</v>
@@ -4968,18 +5304,18 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C110" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E110">
         <v>6</v>
@@ -4988,18 +5324,18 @@
         <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -5008,18 +5344,18 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E112">
         <v>6</v>
@@ -5028,18 +5364,18 @@
         <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -5048,18 +5384,18 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E114">
         <v>6</v>
@@ -5068,18 +5404,18 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E115">
         <v>6</v>
@@ -5088,18 +5424,18 @@
         <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -5108,18 +5444,18 @@
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C117" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E117">
         <v>6</v>
@@ -5128,18 +5464,18 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E118">
         <v>6</v>
@@ -5148,18 +5484,18 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C119" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -5168,18 +5504,18 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E120">
         <v>6</v>
@@ -5188,241 +5524,241 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
+        <v>546</v>
+      </c>
+      <c r="C121" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>547</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>549</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>550</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>552</v>
+      </c>
+      <c r="C123" t="s">
+        <v>209</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
+        <v>553</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>555</v>
+      </c>
+      <c r="C124" t="s">
+        <v>210</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>556</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>558</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C125" t="s">
         <v>211</v>
       </c>
-      <c r="E121">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>559</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H125" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="8" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" s="7" t="s">
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H127" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="8" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="E123">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" s="7" t="s">
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H128" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>212</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E126">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>561</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>563</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E128">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>565</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>218</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>219</v>
+      <c r="B129" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>721</v>
       </c>
       <c r="E129">
         <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>567</v>
+        <v>34</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>568</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>220</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>221</v>
+      <c r="B130" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>722</v>
       </c>
       <c r="E130">
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>569</v>
+        <v>34</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>570</v>
+        <v>731</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>222</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>223</v>
+      <c r="B131" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>723</v>
       </c>
       <c r="E131">
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>571</v>
+        <v>34</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>572</v>
+        <v>732</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E132">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>573</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>574</v>
-      </c>
+      <c r="H132" s="5"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E133">
         <v>6</v>
@@ -5431,18 +5767,18 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E134">
         <v>6</v>
@@ -5451,18 +5787,18 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E135">
         <v>6</v>
@@ -5471,18 +5807,18 @@
         <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -5491,18 +5827,18 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E137">
         <v>6</v>
@@ -5511,18 +5847,18 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E138">
         <v>6</v>
@@ -5531,18 +5867,18 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -5551,18 +5887,18 @@
         <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E140">
         <v>6</v>
@@ -5571,18 +5907,18 @@
         <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E141">
         <v>6</v>
@@ -5591,18 +5927,18 @@
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -5611,18 +5947,18 @@
         <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E143">
         <v>6</v>
@@ -5631,18 +5967,18 @@
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E144">
         <v>6</v>
@@ -5651,18 +5987,18 @@
         <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E145">
         <v>6</v>
@@ -5671,18 +6007,18 @@
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E146">
         <v>6</v>
@@ -5691,18 +6027,18 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -5711,18 +6047,18 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -5731,18 +6067,18 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E149">
         <v>6</v>
@@ -5751,18 +6087,18 @@
         <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E150">
         <v>6</v>
@@ -5771,18 +6107,18 @@
         <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E151">
         <v>6</v>
@@ -5791,18 +6127,18 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E152">
         <v>6</v>
@@ -5811,18 +6147,18 @@
         <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E153">
         <v>6</v>
@@ -5831,18 +6167,18 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E154">
         <v>6</v>
@@ -5851,18 +6187,18 @@
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -5871,298 +6207,282 @@
         <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>272</v>
-      </c>
-      <c r="C156" t="s">
-        <v>45</v>
+        <v>258</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>273</v>
-      </c>
-      <c r="C157" t="s">
-        <v>47</v>
+        <v>260</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>274</v>
-      </c>
-      <c r="C158" t="s">
-        <v>49</v>
+        <v>262</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>275</v>
-      </c>
-      <c r="C159" t="s">
-        <v>51</v>
+        <v>264</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>276</v>
-      </c>
-      <c r="C160" t="s">
-        <v>53</v>
+        <v>266</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="E160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>277</v>
-      </c>
-      <c r="C161" t="s">
-        <v>55</v>
+        <v>268</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="E161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>278</v>
-      </c>
-      <c r="C162" t="s">
-        <v>57</v>
+        <v>270</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G162" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>279</v>
-      </c>
-      <c r="C163" t="s">
-        <v>59</v>
+      <c r="B163" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>736</v>
       </c>
       <c r="E163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
-      </c>
-      <c r="G163" t="s">
-        <v>635</v>
+        <v>22</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>280</v>
-      </c>
-      <c r="C164" t="s">
-        <v>61</v>
+      <c r="B164" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>737</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
-      </c>
-      <c r="G164" t="s">
-        <v>637</v>
+        <v>22</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>281</v>
-      </c>
-      <c r="C165" t="s">
-        <v>63</v>
+      <c r="B165" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>738</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
-      </c>
-      <c r="G165" t="s">
-        <v>639</v>
+        <v>22</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>640</v>
+        <v>744</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>282</v>
-      </c>
-      <c r="C166" t="s">
-        <v>283</v>
+      <c r="B166" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
-      </c>
-      <c r="G166" t="s">
-        <v>641</v>
+        <v>22</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>642</v>
+        <v>751</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>284</v>
-      </c>
-      <c r="C167" t="s">
-        <v>285</v>
+      <c r="B167" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167" t="s">
-        <v>643</v>
+        <v>22</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>644</v>
+        <v>752</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>286</v>
-      </c>
-      <c r="C168" t="s">
-        <v>287</v>
+      <c r="B168" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
-      </c>
-      <c r="G168" t="s">
-        <v>645</v>
+        <v>22</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>646</v>
+        <v>753</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>288</v>
-      </c>
-      <c r="C169" t="s">
-        <v>289</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
-      </c>
-      <c r="F169" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" t="s">
-        <v>647</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>648</v>
-      </c>
+      <c r="C169" s="6"/>
+      <c r="H169" s="5"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C170" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -6171,18 +6491,18 @@
         <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -6191,18 +6511,18 @@
         <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -6211,18 +6531,18 @@
         <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C173" t="s">
-        <v>297</v>
+        <v>51</v>
       </c>
       <c r="E173">
         <v>3</v>
@@ -6231,18 +6551,18 @@
         <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>660</v>
+      <c r="B174" t="s">
+        <v>276</v>
+      </c>
+      <c r="C174" t="s">
+        <v>53</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -6250,19 +6570,19 @@
       <c r="F174" t="s">
         <v>41</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>663</v>
+      <c r="G174" t="s">
+        <v>629</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>661</v>
+      <c r="B175" t="s">
+        <v>277</v>
+      </c>
+      <c r="C175" t="s">
+        <v>55</v>
       </c>
       <c r="E175">
         <v>3</v>
@@ -6270,19 +6590,19 @@
       <c r="F175" t="s">
         <v>41</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>664</v>
+      <c r="G175" t="s">
+        <v>631</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B176" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>662</v>
+      <c r="B176" t="s">
+        <v>278</v>
+      </c>
+      <c r="C176" t="s">
+        <v>57</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -6290,16 +6610,476 @@
       <c r="F176" t="s">
         <v>41</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="G176" t="s">
+        <v>633</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>279</v>
+      </c>
+      <c r="C177" t="s">
+        <v>59</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" t="s">
+        <v>635</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>280</v>
+      </c>
+      <c r="C178" t="s">
+        <v>61</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" t="s">
+        <v>637</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>281</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179" t="s">
+        <v>41</v>
+      </c>
+      <c r="G179" t="s">
+        <v>639</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>282</v>
+      </c>
+      <c r="C180" t="s">
+        <v>283</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
+        <v>641</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>284</v>
+      </c>
+      <c r="C181" t="s">
+        <v>285</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>41</v>
+      </c>
+      <c r="G181" t="s">
+        <v>643</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>286</v>
+      </c>
+      <c r="C182" t="s">
+        <v>287</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>41</v>
+      </c>
+      <c r="G182" t="s">
+        <v>645</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>288</v>
+      </c>
+      <c r="C183" t="s">
+        <v>289</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183" t="s">
+        <v>41</v>
+      </c>
+      <c r="G183" t="s">
+        <v>647</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" t="s">
+        <v>291</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>41</v>
+      </c>
+      <c r="G184" t="s">
+        <v>649</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>292</v>
+      </c>
+      <c r="C185" t="s">
+        <v>293</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" t="s">
+        <v>651</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>294</v>
+      </c>
+      <c r="C186" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186" t="s">
+        <v>41</v>
+      </c>
+      <c r="G186" t="s">
+        <v>653</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>296</v>
+      </c>
+      <c r="C187" t="s">
+        <v>297</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>41</v>
+      </c>
+      <c r="G187" t="s">
+        <v>655</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188" t="s">
+        <v>41</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189" t="s">
+        <v>41</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="H176" s="5" t="s">
-        <v>668</v>
+      <c r="H190" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="E191">
+        <v>1.25</v>
+      </c>
+      <c r="F191" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" t="s">
+        <v>702</v>
+      </c>
+      <c r="H191" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E192">
+        <v>1.25</v>
+      </c>
+      <c r="F192" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" t="s">
+        <v>703</v>
+      </c>
+      <c r="H192" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E193">
+        <v>1.25</v>
+      </c>
+      <c r="F193" t="s">
+        <v>41</v>
+      </c>
+      <c r="G193" t="s">
+        <v>704</v>
+      </c>
+      <c r="H193" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194" t="s">
+        <v>41</v>
+      </c>
+      <c r="G194" t="s">
+        <v>705</v>
+      </c>
+      <c r="H194" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195" t="s">
+        <v>41</v>
+      </c>
+      <c r="G195" t="s">
+        <v>706</v>
+      </c>
+      <c r="H195" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>41</v>
+      </c>
+      <c r="G196" t="s">
+        <v>707</v>
+      </c>
+      <c r="H196" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E197">
+        <v>1.5</v>
+      </c>
+      <c r="F197" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" t="s">
+        <v>708</v>
+      </c>
+      <c r="H197" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E198">
+        <v>1.5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" t="s">
+        <v>709</v>
+      </c>
+      <c r="H198" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E199">
+        <v>1.5</v>
+      </c>
+      <c r="F199" t="s">
+        <v>41</v>
+      </c>
+      <c r="G199" t="s">
+        <v>710</v>
+      </c>
+      <c r="H199" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBB8C5B-6E9C-4D83-9093-30CA01545265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2776653D-F10E-495E-8F03-F1C299B2423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="774">
   <si>
     <t>##var</t>
   </si>
@@ -2635,6 +2635,38 @@
   </si>
   <si>
     <t>TowerFire_Bullet1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_CameraPlayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraPlayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraPlayer.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Character/CameraPlayer.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_FireSea.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/Bullet_FireSea.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_FireSea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海子弹</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3050,25 +3082,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <pane ySplit="5" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="33.25" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="4" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +3140,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3170,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3210,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3210,7 +3242,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3282,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>303</v>
       </c>
@@ -3270,7 +3302,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>305</v>
       </c>
@@ -3290,7 +3322,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>307</v>
       </c>
@@ -3310,7 +3342,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>309</v>
       </c>
@@ -3330,7 +3362,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>311</v>
       </c>
@@ -3350,149 +3382,152 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>316</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="E14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>324</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
+      <c r="G17" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>328</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -3501,35 +3536,32 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>330</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>332</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -3541,15 +3573,15 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -3561,15 +3593,15 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -3581,58 +3613,58 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>338</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>340</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>40</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>341</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>343</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3641,18 +3673,18 @@
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -3661,18 +3693,18 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -3681,38 +3713,38 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>352</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
+        <v>349</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -3721,18 +3753,18 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -3741,38 +3773,38 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -3781,18 +3813,18 @@
         <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -3801,38 +3833,38 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>1.5</v>
@@ -3841,18 +3873,18 @@
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>1.5</v>
@@ -3861,241 +3893,241 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="s">
         <v>41</v>
       </c>
       <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>372</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>374</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>67</v>
       </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>376</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>69</v>
       </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>378</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>71</v>
       </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>380</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>382</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>75</v>
       </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>384</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>386</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>79</v>
       </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>388</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>81</v>
       </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>390</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>83</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C49" t="s">
-        <v>85</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -4104,18 +4136,18 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -4124,98 +4156,98 @@
         <v>22</v>
       </c>
       <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
         <v>88</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>396</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>89</v>
       </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>398</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>91</v>
       </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>400</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
         <v>94</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>402</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>95</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>404</v>
-      </c>
-      <c r="C55" t="s">
-        <v>97</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -4224,18 +4256,18 @@
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -4244,278 +4276,278 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>406</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>408</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>101</v>
       </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>410</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>103</v>
       </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
         <v>104</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>412</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>105</v>
       </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>414</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>107</v>
       </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>416</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
         <v>110</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>418</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>111</v>
       </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
         <v>112</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>420</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>113</v>
       </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>114</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>422</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>115</v>
       </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>424</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="E65">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>426</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>119</v>
       </c>
-      <c r="E66">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>428</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>121</v>
       </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>430</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>123</v>
       </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>432</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>125</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>434</v>
-      </c>
-      <c r="C70" t="s">
-        <v>127</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -4524,18 +4556,18 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -4544,18 +4576,18 @@
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E72">
         <v>6</v>
@@ -4564,18 +4596,18 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E73">
         <v>6</v>
@@ -4584,18 +4616,18 @@
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E74">
         <v>6</v>
@@ -4604,18 +4636,18 @@
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>754</v>
+        <v>442</v>
       </c>
       <c r="C75" t="s">
-        <v>762</v>
+        <v>135</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -4623,19 +4655,19 @@
       <c r="F75" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>765</v>
+      <c r="G75" t="s">
+        <v>136</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C76" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -4643,19 +4675,19 @@
       <c r="F76" t="s">
         <v>22</v>
       </c>
-      <c r="G76" t="s">
-        <v>757</v>
+      <c r="G76" s="7" t="s">
+        <v>765</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C77" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E77">
         <v>6</v>
@@ -4664,1121 +4696,1121 @@
         <v>22</v>
       </c>
       <c r="G77" t="s">
+        <v>757</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>759</v>
+      </c>
+      <c r="C78" t="s">
+        <v>764</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
         <v>760</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>444</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>137</v>
       </c>
-      <c r="E78">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
         <v>138</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>446</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>139</v>
       </c>
-      <c r="E79">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>448</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>141</v>
       </c>
-      <c r="E80">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
         <v>142</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>450</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>143</v>
       </c>
-      <c r="E81">
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>452</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>145</v>
       </c>
-      <c r="E82">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
         <v>146</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>454</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>147</v>
       </c>
-      <c r="E83">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
         <v>148</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>456</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>149</v>
       </c>
-      <c r="E84">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
         <v>150</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>458</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>151</v>
       </c>
-      <c r="E85">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
         <v>152</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>460</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>153</v>
       </c>
-      <c r="E86">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>462</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>155</v>
       </c>
-      <c r="E87">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
         <v>156</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>464</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>157</v>
       </c>
-      <c r="E88">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
         <v>158</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>466</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>159</v>
       </c>
-      <c r="E89">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
         <v>160</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>468</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>161</v>
       </c>
-      <c r="E90">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
         <v>162</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>470</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>163</v>
       </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
         <v>164</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>472</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>165</v>
       </c>
-      <c r="E92">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" t="s">
         <v>166</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>474</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>167</v>
       </c>
-      <c r="E93">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
         <v>168</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>476</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>169</v>
       </c>
-      <c r="E94">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
         <v>170</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>478</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>171</v>
       </c>
-      <c r="E95">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
         <v>172</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>480</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>173</v>
       </c>
-      <c r="E96">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
         <v>174</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>482</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>175</v>
       </c>
-      <c r="E97">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
         <v>176</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>484</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>177</v>
       </c>
-      <c r="E98">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" t="s">
         <v>178</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>486</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>179</v>
       </c>
-      <c r="E99">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
         <v>180</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>488</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>181</v>
       </c>
-      <c r="E100">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
         <v>182</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>490</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>183</v>
       </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
         <v>184</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>492</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>185</v>
       </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
         <v>186</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>494</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>187</v>
       </c>
-      <c r="E103">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
         <v>188</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>496</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>189</v>
       </c>
-      <c r="E104">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
         <v>190</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>498</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>191</v>
       </c>
-      <c r="E105">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
         <v>499</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>501</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>192</v>
       </c>
-      <c r="E106">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
         <v>502</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>504</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>193</v>
       </c>
-      <c r="E107">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
         <v>505</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H108" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>507</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>194</v>
       </c>
-      <c r="E108">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
         <v>508</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H109" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>510</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>195</v>
       </c>
-      <c r="E109">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>513</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>196</v>
       </c>
-      <c r="E110">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
         <v>514</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>516</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>197</v>
       </c>
-      <c r="E111">
-        <v>6</v>
-      </c>
-      <c r="F111" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
         <v>517</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>519</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>198</v>
       </c>
-      <c r="E112">
-        <v>6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
         <v>520</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H113" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>522</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>199</v>
       </c>
-      <c r="E113">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
         <v>523</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H114" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>525</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>200</v>
       </c>
-      <c r="E114">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
         <v>526</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>528</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>201</v>
       </c>
-      <c r="E115">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" t="s">
         <v>529</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H116" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>531</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>202</v>
       </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" t="s">
         <v>532</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>534</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>203</v>
       </c>
-      <c r="E117">
-        <v>6</v>
-      </c>
-      <c r="F117" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
         <v>535</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>537</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>204</v>
       </c>
-      <c r="E118">
-        <v>6</v>
-      </c>
-      <c r="F118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
         <v>538</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H119" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>540</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>205</v>
       </c>
-      <c r="E119">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
         <v>541</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>543</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>206</v>
       </c>
-      <c r="E120">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
         <v>544</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>546</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>207</v>
       </c>
-      <c r="E121">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
         <v>547</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H122" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>549</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>208</v>
       </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
         <v>550</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H123" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>552</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>209</v>
       </c>
-      <c r="E123">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
         <v>553</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H124" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>555</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>210</v>
       </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>556</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H125" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>558</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>211</v>
       </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" t="s">
         <v>559</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H126" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="8" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="E126">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>34</v>
-      </c>
-      <c r="G126" s="7" t="s">
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H127" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="8" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E127">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" s="7" t="s">
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H128" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="8" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="E128">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" s="7" t="s">
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H129" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="8" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="E129">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G129" s="7" t="s">
+      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H130" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="8" t="s">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="E130">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" s="7" t="s">
+      <c r="E131">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H131" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="8" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="E131">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" s="7" t="s">
+      <c r="E132">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H132" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>212</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="E133">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>561</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>214</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="E134">
         <v>6</v>
@@ -5787,18 +5819,18 @@
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E135">
         <v>6</v>
@@ -5807,18 +5839,18 @@
         <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -5827,18 +5859,18 @@
         <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E137">
         <v>6</v>
@@ -5847,18 +5879,18 @@
         <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E138">
         <v>6</v>
@@ -5867,18 +5899,18 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -5887,18 +5919,18 @@
         <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E140">
         <v>6</v>
@@ -5907,18 +5939,18 @@
         <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E141">
         <v>6</v>
@@ -5927,18 +5959,18 @@
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -5947,18 +5979,18 @@
         <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E143">
         <v>6</v>
@@ -5967,18 +5999,18 @@
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E144">
         <v>6</v>
@@ -5987,18 +6019,18 @@
         <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E145">
         <v>6</v>
@@ -6007,18 +6039,18 @@
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E146">
         <v>6</v>
@@ -6027,18 +6059,18 @@
         <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -6047,18 +6079,18 @@
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -6067,18 +6099,18 @@
         <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E149">
         <v>6</v>
@@ -6087,18 +6119,18 @@
         <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E150">
         <v>6</v>
@@ -6107,18 +6139,18 @@
         <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E151">
         <v>6</v>
@@ -6127,18 +6159,18 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E152">
         <v>6</v>
@@ -6147,18 +6179,18 @@
         <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E153">
         <v>6</v>
@@ -6167,18 +6199,18 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E154">
         <v>6</v>
@@ -6187,18 +6219,18 @@
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -6207,18 +6239,18 @@
         <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E156">
         <v>6</v>
@@ -6227,18 +6259,18 @@
         <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E157">
         <v>6</v>
@@ -6247,18 +6279,18 @@
         <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E158">
         <v>6</v>
@@ -6267,18 +6299,18 @@
         <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E159">
         <v>6</v>
@@ -6287,18 +6319,18 @@
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E160">
         <v>6</v>
@@ -6307,18 +6339,18 @@
         <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E161">
         <v>6</v>
@@ -6327,18 +6359,18 @@
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E162">
         <v>6</v>
@@ -6347,18 +6379,18 @@
         <v>22</v>
       </c>
       <c r="G162" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" s="7" t="s">
-        <v>733</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>270</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>736</v>
+        <v>271</v>
       </c>
       <c r="E163">
         <v>6</v>
@@ -6366,19 +6398,19 @@
       <c r="F163" t="s">
         <v>22</v>
       </c>
-      <c r="G163" s="7" t="s">
-        <v>739</v>
+      <c r="G163" t="s">
+        <v>619</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -6387,18 +6419,18 @@
         <v>22</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E165">
         <v>6</v>
@@ -6407,18 +6439,18 @@
         <v>22</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>249</v>
+        <v>738</v>
       </c>
       <c r="E166">
         <v>6</v>
@@ -6427,18 +6459,18 @@
         <v>22</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -6447,18 +6479,18 @@
         <v>22</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E168">
         <v>6</v>
@@ -6467,42 +6499,42 @@
         <v>22</v>
       </c>
       <c r="G168" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C169" s="6"/>
-      <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C170" s="6"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>272</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>45</v>
-      </c>
-      <c r="E170">
-        <v>3</v>
-      </c>
-      <c r="F170" t="s">
-        <v>41</v>
-      </c>
-      <c r="G170" t="s">
-        <v>621</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>273</v>
-      </c>
-      <c r="C171" t="s">
-        <v>47</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -6511,18 +6543,18 @@
         <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -6531,18 +6563,18 @@
         <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E173">
         <v>3</v>
@@ -6551,18 +6583,18 @@
         <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -6571,18 +6603,18 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C175" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E175">
         <v>3</v>
@@ -6591,18 +6623,18 @@
         <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C176" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -6611,18 +6643,18 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C177" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E177">
         <v>3</v>
@@ -6631,58 +6663,58 @@
         <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C178" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F178" t="s">
         <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C179" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -6691,18 +6723,18 @@
         <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E181">
         <v>3</v>
@@ -6711,18 +6743,18 @@
         <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E182">
         <v>3</v>
@@ -6731,18 +6763,18 @@
         <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C183" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E183">
         <v>3</v>
@@ -6751,18 +6783,18 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C184" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -6771,18 +6803,18 @@
         <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C185" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E185">
         <v>3</v>
@@ -6791,18 +6823,18 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C186" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E186">
         <v>3</v>
@@ -6811,18 +6843,18 @@
         <v>41</v>
       </c>
       <c r="G186" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C187" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E187">
         <v>3</v>
@@ -6831,18 +6863,18 @@
         <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B188" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>296</v>
+      </c>
+      <c r="C188" t="s">
+        <v>297</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -6850,19 +6882,19 @@
       <c r="F188" t="s">
         <v>41</v>
       </c>
-      <c r="G188" s="7" t="s">
-        <v>663</v>
+      <c r="G188" t="s">
+        <v>655</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E189">
         <v>3</v>
@@ -6871,18 +6903,18 @@
         <v>41</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E190">
         <v>3</v>
@@ -6891,38 +6923,38 @@
         <v>41</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="E191">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="F191" t="s">
         <v>41</v>
       </c>
-      <c r="G191" t="s">
-        <v>702</v>
-      </c>
-      <c r="H191" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G191" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E192">
         <v>1.25</v>
@@ -6931,18 +6963,18 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H192" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E193">
         <v>1.25</v>
@@ -6951,38 +6983,38 @@
         <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H193" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E194">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="F194" t="s">
         <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H194" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -6991,18 +7023,18 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H195" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -7011,38 +7043,38 @@
         <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H196" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E197">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F197" t="s">
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H197" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E198">
         <v>1.5</v>
@@ -7051,18 +7083,18 @@
         <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H198" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E199">
         <v>1.5</v>
@@ -7071,11 +7103,54 @@
         <v>41</v>
       </c>
       <c r="G199" t="s">
+        <v>709</v>
+      </c>
+      <c r="H199" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E200">
+        <v>1.5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" t="s">
         <v>710</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H200" t="s">
         <v>720</v>
       </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E203">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F204" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2776653D-F10E-495E-8F03-F1C299B2423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF0E00-1C25-47CA-8EB2-AC2C54E0A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="806">
   <si>
     <t>##var</t>
   </si>
@@ -2654,10 +2668,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet_FireSea.prefab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Bullet/Bullet_FireSea.prefab</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2667,6 +2677,125 @@
   </si>
   <si>
     <t>火海子弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Hell</t>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对静默</t>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/PlayerSkill_BreakArmor_Bullet.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/PlayerSkill_IceBind_Bullet.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/PlayerSkill_TimeBarrier_Bullet.prefab</t>
+  </si>
+  <si>
+    <t>结界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Bullet_TimeBarrier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/TimeBarrier.prefab</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2793,7 +2922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2804,6 +2933,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3084,23 +3219,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B203" sqref="B203:H203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3275,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3170,7 +3305,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3345,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3242,7 +3377,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3282,7 +3417,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>303</v>
       </c>
@@ -3302,7 +3437,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>305</v>
       </c>
@@ -3322,7 +3457,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>307</v>
       </c>
@@ -3342,7 +3477,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>309</v>
       </c>
@@ -3362,7 +3497,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>311</v>
       </c>
@@ -3382,7 +3517,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>766</v>
       </c>
@@ -3402,7 +3537,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>313</v>
       </c>
@@ -3422,7 +3557,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>315</v>
       </c>
@@ -3442,7 +3577,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>316</v>
       </c>
@@ -3462,7 +3597,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>318</v>
       </c>
@@ -3482,7 +3617,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>321</v>
       </c>
@@ -3502,7 +3637,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>324</v>
       </c>
@@ -3522,7 +3657,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -3542,7 +3677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>328</v>
       </c>
@@ -3559,7 +3694,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>330</v>
       </c>
@@ -3579,7 +3714,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>332</v>
       </c>
@@ -3599,7 +3734,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>334</v>
       </c>
@@ -3619,7 +3754,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>336</v>
       </c>
@@ -3639,7 +3774,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>338</v>
       </c>
@@ -3659,7 +3794,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>340</v>
       </c>
@@ -3679,7 +3814,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>343</v>
       </c>
@@ -3699,7 +3834,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>346</v>
       </c>
@@ -3719,7 +3854,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>349</v>
       </c>
@@ -3739,7 +3874,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>352</v>
       </c>
@@ -3759,7 +3894,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>354</v>
       </c>
@@ -3779,7 +3914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>356</v>
       </c>
@@ -3799,7 +3934,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>358</v>
       </c>
@@ -3819,7 +3954,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>360</v>
       </c>
@@ -3839,7 +3974,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>362</v>
       </c>
@@ -3859,7 +3994,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>364</v>
       </c>
@@ -3879,7 +4014,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>366</v>
       </c>
@@ -3899,7 +4034,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>368</v>
       </c>
@@ -3919,7 +4054,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>370</v>
       </c>
@@ -3939,10 +4074,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>372</v>
       </c>
@@ -3962,7 +4097,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>374</v>
       </c>
@@ -3982,7 +4117,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>376</v>
       </c>
@@ -4002,7 +4137,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>378</v>
       </c>
@@ -4022,7 +4157,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>380</v>
       </c>
@@ -4042,7 +4177,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>382</v>
       </c>
@@ -4062,7 +4197,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>384</v>
       </c>
@@ -4082,7 +4217,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>386</v>
       </c>
@@ -4102,7 +4237,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>388</v>
       </c>
@@ -4122,7 +4257,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>390</v>
       </c>
@@ -4142,7 +4277,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>392</v>
       </c>
@@ -4162,7 +4297,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>394</v>
       </c>
@@ -4182,7 +4317,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>396</v>
       </c>
@@ -4202,7 +4337,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>398</v>
       </c>
@@ -4222,7 +4357,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>400</v>
       </c>
@@ -4242,7 +4377,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>402</v>
       </c>
@@ -4262,7 +4397,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>404</v>
       </c>
@@ -4282,7 +4417,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>406</v>
       </c>
@@ -4302,7 +4437,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>408</v>
       </c>
@@ -4322,7 +4457,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>410</v>
       </c>
@@ -4342,7 +4477,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>412</v>
       </c>
@@ -4362,7 +4497,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>414</v>
       </c>
@@ -4382,7 +4517,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>416</v>
       </c>
@@ -4402,7 +4537,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>418</v>
       </c>
@@ -4422,7 +4557,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>420</v>
       </c>
@@ -4442,7 +4577,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>422</v>
       </c>
@@ -4462,7 +4597,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>424</v>
       </c>
@@ -4482,7 +4617,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>426</v>
       </c>
@@ -4502,7 +4637,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>428</v>
       </c>
@@ -4522,7 +4657,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>430</v>
       </c>
@@ -4542,7 +4677,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>432</v>
       </c>
@@ -4562,7 +4697,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>434</v>
       </c>
@@ -4582,7 +4717,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>436</v>
       </c>
@@ -4602,7 +4737,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>438</v>
       </c>
@@ -4622,7 +4757,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>440</v>
       </c>
@@ -4642,7 +4777,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>442</v>
       </c>
@@ -4662,7 +4797,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>754</v>
       </c>
@@ -4682,7 +4817,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>756</v>
       </c>
@@ -4702,7 +4837,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>759</v>
       </c>
@@ -4722,7 +4857,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>444</v>
       </c>
@@ -4742,7 +4877,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>446</v>
       </c>
@@ -4762,7 +4897,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>448</v>
       </c>
@@ -4782,7 +4917,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>450</v>
       </c>
@@ -4802,7 +4937,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>452</v>
       </c>
@@ -4822,7 +4957,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>454</v>
       </c>
@@ -4842,7 +4977,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>456</v>
       </c>
@@ -4862,7 +4997,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>458</v>
       </c>
@@ -4882,7 +5017,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>460</v>
       </c>
@@ -4902,7 +5037,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>462</v>
       </c>
@@ -4922,7 +5057,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>464</v>
       </c>
@@ -4942,7 +5077,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>466</v>
       </c>
@@ -4962,7 +5097,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>468</v>
       </c>
@@ -4982,7 +5117,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>470</v>
       </c>
@@ -5002,7 +5137,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>472</v>
       </c>
@@ -5022,7 +5157,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>474</v>
       </c>
@@ -5042,7 +5177,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>476</v>
       </c>
@@ -5062,7 +5197,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>478</v>
       </c>
@@ -5082,7 +5217,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>480</v>
       </c>
@@ -5102,7 +5237,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>482</v>
       </c>
@@ -5122,7 +5257,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>484</v>
       </c>
@@ -5142,7 +5277,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>486</v>
       </c>
@@ -5162,7 +5297,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>488</v>
       </c>
@@ -5182,7 +5317,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>490</v>
       </c>
@@ -5202,7 +5337,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>492</v>
       </c>
@@ -5222,7 +5357,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>494</v>
       </c>
@@ -5242,7 +5377,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>496</v>
       </c>
@@ -5262,7 +5397,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>498</v>
       </c>
@@ -5282,7 +5417,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>501</v>
       </c>
@@ -5302,7 +5437,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>504</v>
       </c>
@@ -5322,7 +5457,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>507</v>
       </c>
@@ -5342,7 +5477,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>510</v>
       </c>
@@ -5362,7 +5497,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>513</v>
       </c>
@@ -5382,7 +5517,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>516</v>
       </c>
@@ -5402,7 +5537,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>519</v>
       </c>
@@ -5422,7 +5557,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>522</v>
       </c>
@@ -5442,7 +5577,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>525</v>
       </c>
@@ -5462,7 +5597,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>528</v>
       </c>
@@ -5482,7 +5617,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>531</v>
       </c>
@@ -5502,7 +5637,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>534</v>
       </c>
@@ -5522,7 +5657,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>537</v>
       </c>
@@ -5542,7 +5677,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>540</v>
       </c>
@@ -5562,7 +5697,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>543</v>
       </c>
@@ -5582,7 +5717,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>546</v>
       </c>
@@ -5602,7 +5737,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>549</v>
       </c>
@@ -5622,7 +5757,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>552</v>
       </c>
@@ -5642,7 +5777,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>555</v>
       </c>
@@ -5662,7 +5797,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>558</v>
       </c>
@@ -5682,7 +5817,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="8" t="s">
         <v>671</v>
       </c>
@@ -5702,7 +5837,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>672</v>
       </c>
@@ -5722,7 +5857,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
         <v>673</v>
       </c>
@@ -5742,7 +5877,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
         <v>724</v>
       </c>
@@ -5762,7 +5897,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
         <v>725</v>
       </c>
@@ -5782,7 +5917,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="8" t="s">
         <v>726</v>
       </c>
@@ -5802,10 +5937,10 @@
         <v>732</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>212</v>
       </c>
@@ -5825,7 +5960,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>214</v>
       </c>
@@ -5845,7 +5980,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>216</v>
       </c>
@@ -5865,7 +6000,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>218</v>
       </c>
@@ -5885,7 +6020,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>220</v>
       </c>
@@ -5905,7 +6040,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>222</v>
       </c>
@@ -5925,7 +6060,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>224</v>
       </c>
@@ -5945,7 +6080,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>226</v>
       </c>
@@ -5965,7 +6100,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>228</v>
       </c>
@@ -5985,7 +6120,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>230</v>
       </c>
@@ -6005,7 +6140,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>232</v>
       </c>
@@ -6025,7 +6160,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>234</v>
       </c>
@@ -6045,7 +6180,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>236</v>
       </c>
@@ -6065,7 +6200,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>238</v>
       </c>
@@ -6085,7 +6220,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>240</v>
       </c>
@@ -6105,7 +6240,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>242</v>
       </c>
@@ -6125,7 +6260,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>244</v>
       </c>
@@ -6145,7 +6280,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>246</v>
       </c>
@@ -6165,7 +6300,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>248</v>
       </c>
@@ -6185,7 +6320,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>250</v>
       </c>
@@ -6205,7 +6340,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>252</v>
       </c>
@@ -6225,7 +6360,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>254</v>
       </c>
@@ -6245,7 +6380,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>256</v>
       </c>
@@ -6265,7 +6400,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>258</v>
       </c>
@@ -6285,7 +6420,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>260</v>
       </c>
@@ -6305,7 +6440,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>262</v>
       </c>
@@ -6325,7 +6460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>264</v>
       </c>
@@ -6345,7 +6480,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>266</v>
       </c>
@@ -6365,7 +6500,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>268</v>
       </c>
@@ -6385,7 +6520,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>270</v>
       </c>
@@ -6405,7 +6540,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
         <v>733</v>
       </c>
@@ -6425,7 +6560,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>734</v>
       </c>
@@ -6445,7 +6580,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
         <v>735</v>
       </c>
@@ -6465,7 +6600,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
         <v>745</v>
       </c>
@@ -6485,7 +6620,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
         <v>746</v>
       </c>
@@ -6505,7 +6640,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
         <v>747</v>
       </c>
@@ -6525,11 +6660,11 @@
         <v>753</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C170" s="6"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>272</v>
       </c>
@@ -6549,7 +6684,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>273</v>
       </c>
@@ -6569,7 +6704,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>274</v>
       </c>
@@ -6589,7 +6724,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>275</v>
       </c>
@@ -6609,7 +6744,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>276</v>
       </c>
@@ -6629,7 +6764,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>277</v>
       </c>
@@ -6649,7 +6784,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>278</v>
       </c>
@@ -6669,7 +6804,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>279</v>
       </c>
@@ -6689,7 +6824,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>280</v>
       </c>
@@ -6709,7 +6844,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>281</v>
       </c>
@@ -6729,7 +6864,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>282</v>
       </c>
@@ -6749,7 +6884,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>284</v>
       </c>
@@ -6769,7 +6904,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>286</v>
       </c>
@@ -6789,7 +6924,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>288</v>
       </c>
@@ -6809,7 +6944,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>290</v>
       </c>
@@ -6829,7 +6964,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>292</v>
       </c>
@@ -6849,7 +6984,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>294</v>
       </c>
@@ -6869,7 +7004,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>296</v>
       </c>
@@ -6889,7 +7024,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="7" t="s">
         <v>657</v>
       </c>
@@ -6909,7 +7044,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="7" t="s">
         <v>658</v>
       </c>
@@ -6929,7 +7064,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="7" t="s">
         <v>659</v>
       </c>
@@ -6949,7 +7084,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="7" t="s">
         <v>684</v>
       </c>
@@ -6969,7 +7104,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B193" s="7" t="s">
         <v>685</v>
       </c>
@@ -6989,7 +7124,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B194" s="7" t="s">
         <v>686</v>
       </c>
@@ -7009,7 +7144,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B195" s="7" t="s">
         <v>687</v>
       </c>
@@ -7029,7 +7164,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="7" t="s">
         <v>688</v>
       </c>
@@ -7049,7 +7184,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B197" s="7" t="s">
         <v>689</v>
       </c>
@@ -7069,7 +7204,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B198" s="7" t="s">
         <v>690</v>
       </c>
@@ -7089,7 +7224,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B199" s="7" t="s">
         <v>691</v>
       </c>
@@ -7109,7 +7244,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="7" t="s">
         <v>692</v>
       </c>
@@ -7129,27 +7264,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="E203">
-        <v>6</v>
-      </c>
-      <c r="F203" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F204" s="7"/>
     </row>
   </sheetData>
@@ -7157,4 +7272,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E3C1E8-739B-4194-A26D-58C2D45D9973}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>775</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>777</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResUnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96BDB64-97A8-4366-892C-6B1DB7B5C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B28588E-1B23-472F-A214-BC0DF454CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="622">
   <si>
     <t>##var</t>
   </si>
@@ -149,27 +138,18 @@
     <t>种子1</t>
   </si>
   <si>
-    <t>火焰塔1</t>
-  </si>
-  <si>
     <t>火焰塔2</t>
   </si>
   <si>
     <t>火焰塔3</t>
   </si>
   <si>
-    <t>毒雾塔1</t>
-  </si>
-  <si>
     <t>毒雾塔2</t>
   </si>
   <si>
     <t>毒雾塔3</t>
   </si>
   <si>
-    <t>弩箭塔1</t>
-  </si>
-  <si>
     <t>弩箭塔2</t>
   </si>
   <si>
@@ -185,9 +165,6 @@
     <t>弩箭塔子弹3</t>
   </si>
   <si>
-    <t>加农炮1</t>
-  </si>
-  <si>
     <t>加农炮2</t>
   </si>
   <si>
@@ -203,36 +180,24 @@
     <t>加农炮子弹3</t>
   </si>
   <si>
-    <t>龙击炮1</t>
-  </si>
-  <si>
     <t>龙击炮2</t>
   </si>
   <si>
     <t>龙击炮3</t>
   </si>
   <si>
-    <t>雷电塔1</t>
-  </si>
-  <si>
     <t>雷电塔2</t>
   </si>
   <si>
     <t>雷电塔3</t>
   </si>
   <si>
-    <t>冰魔塔1</t>
-  </si>
-  <si>
     <t>冰魔塔2</t>
   </si>
   <si>
     <t>冰魔塔3</t>
   </si>
   <si>
-    <t>加速塔1</t>
-  </si>
-  <si>
     <t>加速塔2</t>
   </si>
   <si>
@@ -257,141 +222,30 @@
     <t>冰魔塔3子弹</t>
   </si>
   <si>
-    <t>奥术天球1</t>
-  </si>
-  <si>
     <t>奥术天球2</t>
   </si>
   <si>
     <t>奥术天球3</t>
   </si>
   <si>
-    <t>炼金塔1</t>
-  </si>
-  <si>
     <t>炼金塔2</t>
   </si>
   <si>
     <t>炼金塔3</t>
   </si>
   <si>
-    <t>毒蝎塔1</t>
-  </si>
-  <si>
     <t>毒蝎塔2</t>
   </si>
   <si>
     <t>毒蝎塔3</t>
   </si>
   <si>
-    <t>诅咒塔1</t>
-  </si>
-  <si>
-    <t>诅咒塔2</t>
-  </si>
-  <si>
-    <t>诅咒塔3</t>
-  </si>
-  <si>
-    <t>巫毒塔1</t>
-  </si>
-  <si>
-    <t>巫毒塔2</t>
-  </si>
-  <si>
-    <t>巫毒塔3</t>
-  </si>
-  <si>
-    <t>冰枪塔1</t>
-  </si>
-  <si>
-    <t>冰枪塔2</t>
-  </si>
-  <si>
-    <t>冰枪塔3</t>
-  </si>
-  <si>
-    <t>水图腾1</t>
-  </si>
-  <si>
-    <t>水图腾2</t>
-  </si>
-  <si>
-    <t>水图腾3</t>
-  </si>
-  <si>
-    <t>电磁塔1</t>
-  </si>
-  <si>
-    <t>电磁塔2</t>
-  </si>
-  <si>
-    <t>电磁塔3</t>
-  </si>
-  <si>
-    <t>奥术精灵1</t>
-  </si>
-  <si>
-    <t>奥术精灵2</t>
-  </si>
-  <si>
-    <t>奥术精灵3</t>
-  </si>
-  <si>
-    <t>连击斧1</t>
-  </si>
-  <si>
-    <t>连击斧2</t>
-  </si>
-  <si>
-    <t>连击斧3</t>
-  </si>
-  <si>
-    <t>灾厄塔1</t>
-  </si>
-  <si>
-    <t>灾厄塔2</t>
-  </si>
-  <si>
-    <t>灾厄塔3</t>
-  </si>
-  <si>
-    <t>窃贼哥布林1</t>
-  </si>
-  <si>
-    <t>窃贼哥布林2</t>
-  </si>
-  <si>
-    <t>窃贼哥布林3</t>
-  </si>
-  <si>
-    <t>毒刺塔1</t>
-  </si>
-  <si>
-    <t>毒刺塔2</t>
-  </si>
-  <si>
-    <t>毒刺塔3</t>
-  </si>
-  <si>
-    <t>火箭塔1</t>
-  </si>
-  <si>
     <t>火箭塔2</t>
   </si>
   <si>
     <t>火箭塔3</t>
   </si>
   <si>
-    <t>火球塔1</t>
-  </si>
-  <si>
-    <t>火球塔2</t>
-  </si>
-  <si>
-    <t>火球塔3</t>
-  </si>
-  <si>
     <t>ResUnit_BulletTowerAoShu1</t>
   </si>
   <si>
@@ -705,9 +559,6 @@
     <t>ResUnit_HeadQuarterPreview</t>
   </si>
   <si>
-    <t>Assets/ResAB/UnitPrefab/Character/HeadQuarterPreview.prefab</t>
-  </si>
-  <si>
     <t>ResUnit_Dan1Preview</t>
   </si>
   <si>
@@ -732,9 +583,6 @@
     <t>ResUnit_MonsterCall</t>
   </si>
   <si>
-    <t>Assets/ResAB/UnitPrefab/Character/MonsterCall.prefab</t>
-  </si>
-  <si>
     <t>ResUnit_TowerSolo1</t>
   </si>
   <si>
@@ -849,60 +697,24 @@
     <t>Assets/ResAB/UnitPrefab/Monster/Seed1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_FireLine_1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/FE_moth_1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_FireLine_2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/FE_moth_2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_FireLine_3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/FE_moth_3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_DragCircle_1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/HM_poison_1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_DragCircle_2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/HM_poison_2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_DragCircle_3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/HM_poison_3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_ArrowSolo_1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_Tower_ArrowSolo_2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_Tower_ArrowSolo_3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/HM_crossbow_3.prefab</t>
-  </si>
-  <si>
     <t>ResUnit_Tower_ArrowSolo_Bullet_1</t>
   </si>
   <si>
@@ -921,21 +733,12 @@
     <t>Assets/ResAB/UnitPrefab/Bullet/FE_toothfish_bullet_3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_Canon_1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/HM_cannon_1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_Canon_2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/HM_cannon_2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_Tower_Canon_3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/HM_cannon_3.prefab</t>
   </si>
   <si>
@@ -957,75 +760,39 @@
     <t>Assets/ResAB/UnitPrefab/Bullet/HM_cannon_bullet3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerDragon1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerDragon1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerDragon2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerDragon2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerDragon3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerDragon3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerElec1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerElec1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerElec2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerElec2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerElec3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerElec3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerIce1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerIce1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerIce2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerIce2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerIce3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerIce3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerTime1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerTime1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerTime2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerTime2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerTime3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerTime3.prefab</t>
   </si>
   <si>
@@ -1065,292 +832,58 @@
     <t>Assets/ResAB/UnitPrefab/Bullet/TowerIce_Bullet3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerMagicBall1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Magicball1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerMagicBall2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Magicball2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerMagicBall3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Magicball3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerAlchemy1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Alchemy1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerAlchemy2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Alchemy2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerAlchemy3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Alchemy3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerScorpio1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Scorpio1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerScorpio2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Scorpio2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerScorpio3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Scorpio3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerCurse1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Curse1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerCurse2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Curse2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerCurse3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Curse3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_Towerwitch1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Witch1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_Towerwitch2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Witch2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_Towerwitch3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Witch3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerIceArrow1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Ice1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerIceArrow2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Ice2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerIceArrow3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Ice3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerWater1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Water1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerWater2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Water2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerWater3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Water3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerElectromagnetic1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Electromagnetic1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerElectromagnetic2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Electromagnetic2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerElectromagnetic3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/Electromagnetic3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerFire1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Fire1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerFire2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Fire2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerFire3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Fire3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerAoShu1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerAoShu1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerAoShu2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerAoShu2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerAoShu3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerAoShu3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerLianJi1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerLianJi1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerLianJi2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerLianJi2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerLianJi3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerLianJi3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerZaiE1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerZaiE1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerZaiE2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerZaiE2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerZaiE3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerZaiE3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerGoblin1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerGoblin1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerGoblin2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerGoblin2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerGoblin3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerGoblin3.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerDuCi1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerDuCi1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerDuCi2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerDuCi2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerDuCi3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerDuCi3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerRocket1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerRocket1.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerRocket2</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerRocket2.prefab</t>
   </si>
   <si>
-    <t>ResUnit_TowerRocket3</t>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerRocket3.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerFireBall1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerFireBall1.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerFireBall2</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerFireBall2.prefab</t>
-  </si>
-  <si>
-    <t>ResUnit_TowerFireBall3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UnitPrefab/Tower/TowerFireBall3.prefab</t>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Bullet/BulletTowerAoShu1.prefab</t>
@@ -1593,75 +1126,6 @@
     <t>炸弹3</t>
   </si>
   <si>
-    <r>
-      <t>ResUnit_Bomb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ResUnit_Bomb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ResUnit_Bomb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Assets/ResAB/UnitPrefab/Tower/TowerBomb1.prefab</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1779,16 +1243,6 @@
   </si>
   <si>
     <t>魔像3</t>
-  </si>
-  <si>
-    <t>ResUnit_Golem1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResUnit_Golem2</t>
-  </si>
-  <si>
-    <t>ResUnit_Golem3</t>
   </si>
   <si>
     <t>Assets/ResAB/UnitPrefab/Tower/Golem1.prefab</t>
@@ -2060,56 +1514,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>-空</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Assets/ResAB/UnitPrefab/Bullet/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Monster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Skull1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.prefab</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2385,15 +1789,356 @@
     <t>水晶3</t>
   </si>
   <si>
-    <t>Assets/ResAB/UnitPrefab/Character/ColliderTower.prefab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResUnit_ColliderTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞塔</t>
+    <t>Assets/ResAB/UnitPrefab/Tower/Tower_Box1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Tower_Box2.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Tower_Crossbow1.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Tower_Crossbow2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Tower/Tower_Crossbow3.prefab</t>
+  </si>
+  <si>
+    <t>ResUnit_PlayerSkillCaster</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillCaster</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Character/PlayerSkillCaster.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾1子弹</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Box</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_BoostBox</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_XBow1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_XBow2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_XBow3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Cannon1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Cannon2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Cannon3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Flame1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Flame2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Flame3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_AcidMist1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_AcidMist2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_AcidMist3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Draco1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Draco2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Draco3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Thunder1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Thunder2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Thunder3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_IceTower1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_IceTower2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_IceTower3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_SpeedTower1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_SpeedTower2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_SpeedTower3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_MystOrb1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_MystOrb2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_MystOrb3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Alchemy1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Scorpio1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Scorpio2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Scorpio3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Crystal1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Crystal2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Crystal3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Goblin1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Goblin2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Goblin3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Rocket1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Rocket2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Rocket3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Bomb1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Bomb2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Bomb3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Golem1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Golem2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Golem3</t>
+  </si>
+  <si>
+    <t>碰撞体1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术天球1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蝎塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林2</t>
+  </si>
+  <si>
+    <t>哥布林3</t>
+  </si>
+  <si>
+    <t>火箭塔1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_NormalAttack_Tower_Goblin1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_NormalAttack_Tower_Goblin2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_NormalAttack_Tower_Goblin3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林1子弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林2子弹</t>
+  </si>
+  <si>
+    <t>哥布林3子弹</t>
+  </si>
+  <si>
+    <t>ResUnit_Null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Bullet/Null.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Character/HeadQuarterPreview.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Weather_Random</t>
+  </si>
+  <si>
+    <t>随机天气</t>
+  </si>
+  <si>
+    <t>雨天气</t>
+  </si>
+  <si>
+    <t>雪天气</t>
+  </si>
+  <si>
+    <t>雾天气</t>
+  </si>
+  <si>
+    <t>沙尘暴天气</t>
+  </si>
+  <si>
+    <t>ResUnit_Weather_Rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Weather_Snow</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Weather_Fog</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Weather_SandStorm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Weather_MeteorStrike</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山喷发天气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UnitPrefab/Character/MonsterCall.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Weather_Random.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Weather_Rain.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Weather_Snow.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Weather_Fog.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Weather_SandStorm.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Weather_MeteorStrike.prefab</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2524,7 +2269,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2532,6 +2277,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2559,12 +2305,74 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{61DCA3B6-CDCC-44B7-B1E2-454E6BEE34C8}"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2585,34 +2393,30 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="防御塔"/>
+      <sheetName val="玩家技能"/>
+      <sheetName val="塔&amp;技能"/>
       <sheetName val="怪物"/>
-      <sheetName val="技能"/>
+      <sheetName val="难度设计"/>
+      <sheetName val="挑战模式"/>
       <sheetName val="无限模式"/>
-      <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="养成"/>
       <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
       <sheetName val="参考"/>
-      <sheetName val="音乐音效"/>
       <sheetName val="工具"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>名字</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>模型</v>
-          </cell>
           <cell r="C1" t="str">
             <v>模型id</v>
           </cell>
           <cell r="D1" t="str">
-            <v>技能</v>
+            <v>攻击力</v>
           </cell>
           <cell r="E1" t="str">
             <v>生命系数</v>
@@ -2646,8 +2450,8 @@
           <cell r="C2" t="str">
             <v>ResUnit_MiFeng1</v>
           </cell>
-          <cell r="D2" t="str">
-            <v>/</v>
+          <cell r="D2">
+            <v>1</v>
           </cell>
           <cell r="E2">
             <v>1</v>
@@ -2659,7 +2463,10 @@
             <v>2</v>
           </cell>
           <cell r="H2">
-            <v>1</v>
+            <v>1.6</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J2" t="str">
             <v>DeathShow_1</v>
@@ -2675,8 +2482,8 @@
           <cell r="C3" t="str">
             <v>ResUnit_MiFeng2</v>
           </cell>
-          <cell r="D3" t="str">
-            <v>挡3次伤害的护盾</v>
+          <cell r="D3">
+            <v>1</v>
           </cell>
           <cell r="E3">
             <v>4</v>
@@ -2688,10 +2495,10 @@
             <v>2</v>
           </cell>
           <cell r="H3">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I3" t="str">
-            <v>Skill_Monster_MiFeng2,NormalAttack</v>
+            <v>Skill_Monster_MiFeng2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J3" t="str">
             <v>DeathShow_1</v>
@@ -2707,8 +2514,8 @@
           <cell r="C4" t="str">
             <v>ResUnit_MiFeng3</v>
           </cell>
-          <cell r="D4" t="str">
-            <v>不断召唤卫兵</v>
+          <cell r="D4">
+            <v>10</v>
           </cell>
           <cell r="E4">
             <v>32</v>
@@ -2723,7 +2530,7 @@
             <v>3</v>
           </cell>
           <cell r="I4" t="str">
-            <v>Skill_Monster_MiFeng3,NormalAttack</v>
+            <v>Skill_Monster_MiFeng3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J4" t="str">
             <v>DeathShow_1</v>
@@ -2739,8 +2546,8 @@
           <cell r="C5" t="str">
             <v>ResUnit_BianFu1</v>
           </cell>
-          <cell r="D5" t="str">
-            <v>miss</v>
+          <cell r="D5">
+            <v>1</v>
           </cell>
           <cell r="E5">
             <v>1</v>
@@ -2752,10 +2559,10 @@
             <v>2</v>
           </cell>
           <cell r="H5">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I5" t="str">
-            <v>Skill_Monster_BianFu1,NormalAttack</v>
+            <v>Skill_Monster_BianFu1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J5" t="str">
             <v>DeathShow_1</v>
@@ -2771,8 +2578,8 @@
           <cell r="C6" t="str">
             <v>ResUnit_BianFu2</v>
           </cell>
-          <cell r="D6" t="str">
-            <v>群体闪避</v>
+          <cell r="D6">
+            <v>1</v>
           </cell>
           <cell r="E6">
             <v>4</v>
@@ -2784,10 +2591,10 @@
             <v>2</v>
           </cell>
           <cell r="H6">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I6" t="str">
-            <v>Skill_Monster_BianFu2,NormalAttack</v>
+            <v>Skill_Monster_BianFu2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J6" t="str">
             <v>DeathShow_1</v>
@@ -2803,8 +2610,8 @@
           <cell r="C7" t="str">
             <v>ResUnit_BianFu3</v>
           </cell>
-          <cell r="D7" t="str">
-            <v>/</v>
+          <cell r="D7">
+            <v>10</v>
           </cell>
           <cell r="E7">
             <v>32</v>
@@ -2817,6 +2624,9 @@
           </cell>
           <cell r="H7">
             <v>3</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J7" t="str">
             <v>DeathShow_1</v>
@@ -2832,8 +2642,8 @@
           <cell r="C8" t="str">
             <v>ResUnit_ZhiZhu1</v>
           </cell>
-          <cell r="D8" t="str">
-            <v>快速</v>
+          <cell r="D8">
+            <v>1</v>
           </cell>
           <cell r="E8">
             <v>1</v>
@@ -2845,7 +2655,10 @@
             <v>4</v>
           </cell>
           <cell r="H8">
-            <v>1</v>
+            <v>1.6</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J8" t="str">
             <v>DeathShow_1</v>
@@ -2861,8 +2674,8 @@
           <cell r="C9" t="str">
             <v>ResUnit_ZhiZhu2</v>
           </cell>
-          <cell r="D9" t="str">
-            <v>死亡召唤小蜘蛛</v>
+          <cell r="D9">
+            <v>1</v>
           </cell>
           <cell r="E9">
             <v>4</v>
@@ -2874,10 +2687,10 @@
             <v>4</v>
           </cell>
           <cell r="H9">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I9" t="str">
-            <v>Skill_Monster_ZhiZhu2,NormalAttack</v>
+            <v>Skill_Monster_ZhiZhu2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J9" t="str">
             <v>DeathShow_1</v>
@@ -2893,8 +2706,8 @@
           <cell r="C10" t="str">
             <v>ResUnit_ZhiZhu3</v>
           </cell>
-          <cell r="D10" t="str">
-            <v>/</v>
+          <cell r="D10">
+            <v>10</v>
           </cell>
           <cell r="E10">
             <v>32</v>
@@ -2907,6 +2720,9 @@
           </cell>
           <cell r="H10">
             <v>3</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J10" t="str">
             <v>DeathShow_1</v>
@@ -2922,8 +2738,8 @@
           <cell r="C11" t="str">
             <v>ResUnit_ZhongZi1</v>
           </cell>
-          <cell r="D11" t="str">
-            <v>自我治疗</v>
+          <cell r="D11">
+            <v>1</v>
           </cell>
           <cell r="E11">
             <v>1</v>
@@ -2935,10 +2751,10 @@
             <v>2</v>
           </cell>
           <cell r="H11">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I11" t="str">
-            <v>Skill_Monster_ZhongZi1,NormalAttack</v>
+            <v>Skill_Monster_ZhongZi1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J11" t="str">
             <v>DeathShow_1</v>
@@ -2954,8 +2770,8 @@
           <cell r="C12" t="str">
             <v>ResUnit_ZhongZi2</v>
           </cell>
-          <cell r="D12" t="str">
-            <v>群体治疗‘</v>
+          <cell r="D12">
+            <v>1</v>
           </cell>
           <cell r="E12">
             <v>4</v>
@@ -2967,10 +2783,10 @@
             <v>2</v>
           </cell>
           <cell r="H12">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I12" t="str">
-            <v>Skill_Monster_ZhongZi2,NormalAttack</v>
+            <v>Skill_Monster_ZhongZi2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J12" t="str">
             <v>DeathShow_1</v>
@@ -2986,8 +2802,8 @@
           <cell r="C13" t="str">
             <v>ResUnit_ZhongZi3</v>
           </cell>
-          <cell r="D13" t="str">
-            <v>群体治疗‘</v>
+          <cell r="D13">
+            <v>10</v>
           </cell>
           <cell r="E13">
             <v>32</v>
@@ -3002,7 +2818,7 @@
             <v>3</v>
           </cell>
           <cell r="I13" t="str">
-            <v>Skill_Monster_ZhongZi3,NormalAttack</v>
+            <v>Skill_Monster_ZhongZi3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J13" t="str">
             <v>DeathShow_1</v>
@@ -3018,8 +2834,8 @@
           <cell r="C14" t="str">
             <v>ResUnit_Gui1</v>
           </cell>
-          <cell r="D14" t="str">
-            <v>隐身</v>
+          <cell r="D14">
+            <v>1</v>
           </cell>
           <cell r="E14">
             <v>1</v>
@@ -3031,19 +2847,16 @@
             <v>2</v>
           </cell>
           <cell r="H14">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I14" t="str">
-            <v>Skill_Monster_Gui1,NormalAttack</v>
+            <v>Skill_Monster_Gui1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J14" t="str">
             <v>DeathShow_1</v>
           </cell>
           <cell r="K14" t="str">
             <v>Monster_Gui1</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>Video_Invisible</v>
           </cell>
           <cell r="M14">
             <v>1</v>
@@ -3053,8 +2866,8 @@
           <cell r="C15" t="str">
             <v>ResUnit_Gui2</v>
           </cell>
-          <cell r="D15" t="str">
-            <v>群体隐身</v>
+          <cell r="D15">
+            <v>1</v>
           </cell>
           <cell r="E15">
             <v>4</v>
@@ -3066,10 +2879,10 @@
             <v>2</v>
           </cell>
           <cell r="H15">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I15" t="str">
-            <v>Skill_Monster_Gui2,NormalAttack</v>
+            <v>Skill_Monster_Gui2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J15" t="str">
             <v>DeathShow_1</v>
@@ -3085,8 +2898,8 @@
           <cell r="C16" t="str">
             <v>ResUnit_Gui3</v>
           </cell>
-          <cell r="D16" t="str">
-            <v>隐身</v>
+          <cell r="D16">
+            <v>10</v>
           </cell>
           <cell r="E16">
             <v>32</v>
@@ -3101,7 +2914,7 @@
             <v>3</v>
           </cell>
           <cell r="I16" t="str">
-            <v>Skill_Monster_Gui3,NormalAttack</v>
+            <v>Skill_Monster_Gui3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J16" t="str">
             <v>DeathShow_1</v>
@@ -3117,8 +2930,8 @@
           <cell r="C17" t="str">
             <v>ResUnit_Dan1</v>
           </cell>
-          <cell r="D17" t="str">
-            <v>死亡弱化</v>
+          <cell r="D17">
+            <v>1</v>
           </cell>
           <cell r="E17">
             <v>1</v>
@@ -3130,10 +2943,10 @@
             <v>2</v>
           </cell>
           <cell r="H17">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I17" t="str">
-            <v>Skill_Monster_Dan1,NormalAttack</v>
+            <v>Skill_Monster_Dan1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J17" t="str">
             <v>DeathShow_1</v>
@@ -3149,8 +2962,8 @@
           <cell r="C18" t="str">
             <v>ResUnit_Dan2</v>
           </cell>
-          <cell r="D18" t="str">
-            <v>弱化</v>
+          <cell r="D18">
+            <v>1</v>
           </cell>
           <cell r="E18">
             <v>4</v>
@@ -3162,19 +2975,16 @@
             <v>2</v>
           </cell>
           <cell r="H18">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I18" t="str">
-            <v>Skill_Monster_Dan2,NormalAttack</v>
+            <v>Skill_Monster_Dan2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J18" t="str">
             <v>DeathShow_1</v>
           </cell>
           <cell r="K18" t="str">
             <v>Monster_Dan2</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>Video_Weaken</v>
           </cell>
           <cell r="M18">
             <v>1</v>
@@ -3184,8 +2994,8 @@
           <cell r="C19" t="str">
             <v>ResUnit_Dan3</v>
           </cell>
-          <cell r="D19" t="str">
-            <v>眩晕塔</v>
+          <cell r="D19">
+            <v>10</v>
           </cell>
           <cell r="E19">
             <v>32</v>
@@ -3200,7 +3010,7 @@
             <v>3</v>
           </cell>
           <cell r="I19" t="str">
-            <v>Skill_Monster_Dan3,InitiativeSkill</v>
+            <v>Skill_Monster_Dan3,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J19" t="str">
             <v>DeathShow_1</v>
@@ -3216,8 +3026,8 @@
           <cell r="C20" t="str">
             <v>ResUnit_Niao1</v>
           </cell>
-          <cell r="D20" t="str">
-            <v>加速</v>
+          <cell r="D20">
+            <v>1</v>
           </cell>
           <cell r="E20">
             <v>1</v>
@@ -3229,10 +3039,10 @@
             <v>2</v>
           </cell>
           <cell r="H20">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I20" t="str">
-            <v>Skill_Monster_Niao1,NormalAttack</v>
+            <v>Skill_Monster_Niao1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J20" t="str">
             <v>DeathShow_1</v>
@@ -3248,8 +3058,8 @@
           <cell r="C21" t="str">
             <v>ResUnit_Niao2</v>
           </cell>
-          <cell r="D21" t="str">
-            <v>群体加速</v>
+          <cell r="D21">
+            <v>1</v>
           </cell>
           <cell r="E21">
             <v>4</v>
@@ -3261,10 +3071,10 @@
             <v>2</v>
           </cell>
           <cell r="H21">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I21" t="str">
-            <v>Skill_Monster_Niao2,NormalAttack</v>
+            <v>Skill_Monster_Niao2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J21" t="str">
             <v>DeathShow_1</v>
@@ -3280,8 +3090,8 @@
           <cell r="C22" t="str">
             <v>ResUnit_Niao3</v>
           </cell>
-          <cell r="D22" t="str">
-            <v>群体霸体</v>
+          <cell r="D22">
+            <v>10</v>
           </cell>
           <cell r="E22">
             <v>32</v>
@@ -3296,7 +3106,7 @@
             <v>3</v>
           </cell>
           <cell r="I22" t="str">
-            <v>Skill_Monster_Niao3,NormalAttack</v>
+            <v>Skill_Monster_Niao3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J22" t="str">
             <v>DeathShow_1</v>
@@ -3312,8 +3122,8 @@
           <cell r="C23" t="str">
             <v>ResUnit_Rou1</v>
           </cell>
-          <cell r="D23" t="str">
-            <v>高攻击</v>
+          <cell r="D23">
+            <v>1</v>
           </cell>
           <cell r="E23">
             <v>1</v>
@@ -3325,10 +3135,10 @@
             <v>2</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I23" t="str">
-            <v>Skill_Monster_Long1,NormalAttack</v>
+            <v>Skill_Monster_Long1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J23" t="str">
             <v>DeathShow_1</v>
@@ -3344,8 +3154,8 @@
           <cell r="C24" t="str">
             <v>ResUnit_Rou2</v>
           </cell>
-          <cell r="D24" t="str">
-            <v>群体加攻</v>
+          <cell r="D24">
+            <v>1</v>
           </cell>
           <cell r="E24">
             <v>4</v>
@@ -3357,10 +3167,10 @@
             <v>2</v>
           </cell>
           <cell r="H24">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I24" t="str">
-            <v>Skill_Monster_Long2,NormalAttack</v>
+            <v>Skill_Monster_Long2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J24" t="str">
             <v>DeathShow_1</v>
@@ -3376,8 +3186,8 @@
           <cell r="C25" t="str">
             <v>ResUnit_Rou3</v>
           </cell>
-          <cell r="D25" t="str">
-            <v>破坏塔</v>
+          <cell r="D25">
+            <v>10</v>
           </cell>
           <cell r="E25">
             <v>32</v>
@@ -3392,7 +3202,7 @@
             <v>3</v>
           </cell>
           <cell r="I25" t="str">
-            <v>Skill_Monster_Long3,InitiativeSkill</v>
+            <v>Skill_Monster_Long3,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J25" t="str">
             <v>DeathShow_1</v>
@@ -3408,8 +3218,8 @@
           <cell r="C26" t="str">
             <v>ResUnit_XueRen1</v>
           </cell>
-          <cell r="D26" t="str">
-            <v>持续变弱</v>
+          <cell r="D26">
+            <v>1</v>
           </cell>
           <cell r="E26">
             <v>2</v>
@@ -3421,10 +3231,10 @@
             <v>2</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I26" t="str">
-            <v>Skill_Monster_XueRen1,NormalAttack</v>
+            <v>Skill_Monster_XueRen1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J26" t="str">
             <v>DeathShow_1</v>
@@ -3440,8 +3250,8 @@
           <cell r="C27" t="str">
             <v>ResUnit_XueRen2</v>
           </cell>
-          <cell r="D27" t="str">
-            <v>出场护盾</v>
+          <cell r="D27">
+            <v>1</v>
           </cell>
           <cell r="E27">
             <v>4</v>
@@ -3453,10 +3263,10 @@
             <v>2</v>
           </cell>
           <cell r="H27">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I27" t="str">
-            <v>Skill_Monster_XueRen2,NormalAttack</v>
+            <v>Skill_Monster_XueRen2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J27" t="str">
             <v>DeathShow_1</v>
@@ -3472,8 +3282,8 @@
           <cell r="C28" t="str">
             <v>ResUnit_XueRen3</v>
           </cell>
-          <cell r="D28" t="str">
-            <v>范围冰冻</v>
+          <cell r="D28">
+            <v>10</v>
           </cell>
           <cell r="E28">
             <v>32</v>
@@ -3488,7 +3298,7 @@
             <v>3</v>
           </cell>
           <cell r="I28" t="str">
-            <v>Skill_Monster_XueRen3,InitiativeSkill</v>
+            <v>Skill_Monster_XueRen3,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J28" t="str">
             <v>DeathShow_1</v>
@@ -3504,8 +3314,8 @@
           <cell r="C29" t="str">
             <v>ResUnit_WuGui1</v>
           </cell>
-          <cell r="D29" t="str">
-            <v>停留减伤</v>
+          <cell r="D29">
+            <v>1</v>
           </cell>
           <cell r="E29">
             <v>1</v>
@@ -3517,10 +3327,10 @@
             <v>2</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I29" t="str">
-            <v>Skill_Monster_WuGui1,NormalAttack</v>
+            <v>Skill_Monster_WuGui1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J29" t="str">
             <v>DeathShow_1</v>
@@ -3536,8 +3346,8 @@
           <cell r="C30" t="str">
             <v>ResUnit_WuGui2</v>
           </cell>
-          <cell r="D30" t="str">
-            <v>快速移动减伤</v>
+          <cell r="D30">
+            <v>1</v>
           </cell>
           <cell r="E30">
             <v>4</v>
@@ -3549,10 +3359,10 @@
             <v>2</v>
           </cell>
           <cell r="H30">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I30" t="str">
-            <v>Skill_Monster_WuGui2,NormalAttack</v>
+            <v>Skill_Monster_WuGui2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J30" t="str">
             <v>DeathShow_1</v>
@@ -3568,8 +3378,8 @@
           <cell r="C31" t="str">
             <v>ResUnit_WuGui3</v>
           </cell>
-          <cell r="D31" t="str">
-            <v>群体减伤</v>
+          <cell r="D31">
+            <v>10</v>
           </cell>
           <cell r="E31">
             <v>32</v>
@@ -3584,7 +3394,7 @@
             <v>3</v>
           </cell>
           <cell r="I31" t="str">
-            <v>Skill_Monster_WuGui3,NormalAttack</v>
+            <v>Skill_Monster_WuGui3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J31" t="str">
             <v>DeathShow_1</v>
@@ -3600,8 +3410,8 @@
           <cell r="C32" t="str">
             <v>ResUnit_Skull1</v>
           </cell>
-          <cell r="D32" t="str">
-            <v>复活1次</v>
+          <cell r="D32">
+            <v>1</v>
           </cell>
           <cell r="E32">
             <v>1</v>
@@ -3613,10 +3423,10 @@
             <v>2</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I32" t="str">
-            <v>Skill_Monster_Skull1,NormalAttack</v>
+            <v>Skill_Monster_Skull1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J32" t="str">
             <v>DeathShow_1</v>
@@ -3632,8 +3442,8 @@
           <cell r="C33" t="str">
             <v>ResUnit_Skull2</v>
           </cell>
-          <cell r="D33" t="str">
-            <v>让友军死亡后变骷髅</v>
+          <cell r="D33">
+            <v>1</v>
           </cell>
           <cell r="E33">
             <v>4</v>
@@ -3645,10 +3455,10 @@
             <v>2</v>
           </cell>
           <cell r="H33">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I33" t="str">
-            <v>Skill_Monster_Skull2,NormalAttack</v>
+            <v>Skill_Monster_Skull2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J33" t="str">
             <v>DeathShow_1</v>
@@ -3664,8 +3474,8 @@
           <cell r="C34" t="str">
             <v>ResUnit_Skull3</v>
           </cell>
-          <cell r="D34" t="str">
-            <v>不断召唤墓碑</v>
+          <cell r="D34">
+            <v>10</v>
           </cell>
           <cell r="E34">
             <v>32</v>
@@ -3680,7 +3490,7 @@
             <v>3</v>
           </cell>
           <cell r="I34" t="str">
-            <v>Skill_Monster_Skull3,NormalAttack</v>
+            <v>Skill_Monster_Skull3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J34" t="str">
             <v>DeathShow_1</v>
@@ -3696,8 +3506,8 @@
           <cell r="C35" t="str">
             <v>ResUnit_Spirit1</v>
           </cell>
-          <cell r="D35" t="str">
-            <v>释放烟雾</v>
+          <cell r="D35">
+            <v>1</v>
           </cell>
           <cell r="E35">
             <v>1</v>
@@ -3709,10 +3519,10 @@
             <v>2</v>
           </cell>
           <cell r="H35">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I35" t="str">
-            <v>Skill_Monster_Spirit1,NormalAttack</v>
+            <v>Skill_Monster_Spirit1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J35" t="str">
             <v>DeathShow_1</v>
@@ -3728,8 +3538,8 @@
           <cell r="C36" t="str">
             <v>ResUnit_Spirit2</v>
           </cell>
-          <cell r="D36" t="str">
-            <v>移动烟雾</v>
+          <cell r="D36">
+            <v>1</v>
           </cell>
           <cell r="E36">
             <v>4</v>
@@ -3741,10 +3551,10 @@
             <v>2</v>
           </cell>
           <cell r="H36">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I36" t="str">
-            <v>Skill_Monster_Spirit2,NormalAttack</v>
+            <v>Skill_Monster_Spirit2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J36" t="str">
             <v>DeathShow_1</v>
@@ -3760,8 +3570,8 @@
           <cell r="C37" t="str">
             <v>ResUnit_Spirit3</v>
           </cell>
-          <cell r="D37" t="str">
-            <v>/</v>
+          <cell r="D37">
+            <v>10</v>
           </cell>
           <cell r="E37">
             <v>32</v>
@@ -3774,6 +3584,9 @@
           </cell>
           <cell r="H37">
             <v>3</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J37" t="str">
             <v>DeathShow_1</v>
@@ -3789,8 +3602,8 @@
           <cell r="C38" t="str">
             <v>ResUnit_FireSpirit1</v>
           </cell>
-          <cell r="D38" t="str">
-            <v>死亡自爆，点燃防御塔</v>
+          <cell r="D38">
+            <v>1</v>
           </cell>
           <cell r="E38">
             <v>1</v>
@@ -3802,10 +3615,10 @@
             <v>2</v>
           </cell>
           <cell r="H38">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I38" t="str">
-            <v>Skill_Monster_FireSpirit1,NormalAttack</v>
+            <v>Skill_Monster_FireSpirit1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J38" t="str">
             <v>DeathShow_1</v>
@@ -3821,8 +3634,8 @@
           <cell r="C39" t="str">
             <v>ResUnit_FireSpirit2</v>
           </cell>
-          <cell r="D39" t="str">
-            <v>丢火球，点燃防御塔</v>
+          <cell r="D39">
+            <v>1</v>
           </cell>
           <cell r="E39">
             <v>4</v>
@@ -3834,10 +3647,10 @@
             <v>2</v>
           </cell>
           <cell r="H39">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I39" t="str">
-            <v>Skill_Monster_FireSpirit2,InitiativeSkill</v>
+            <v>Skill_Monster_FireSpirit2,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J39" t="str">
             <v>DeathShow_1</v>
@@ -3853,8 +3666,8 @@
           <cell r="C40" t="str">
             <v>ResUnit_FireSpirit3</v>
           </cell>
-          <cell r="D40" t="str">
-            <v>创造燃烧区域（表现异常）</v>
+          <cell r="D40">
+            <v>10</v>
           </cell>
           <cell r="E40">
             <v>32</v>
@@ -3869,7 +3682,7 @@
             <v>3</v>
           </cell>
           <cell r="I40" t="str">
-            <v>Skill_Monster_FireSpirit3,InitiativeSkill</v>
+            <v>Skill_Monster_FireSpirit3,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J40" t="str">
             <v>DeathShow_1</v>
@@ -3885,8 +3698,8 @@
           <cell r="C41" t="str">
             <v>ResUnit_StoneGolem1</v>
           </cell>
-          <cell r="D41" t="str">
-            <v>钻地</v>
+          <cell r="D41">
+            <v>1</v>
           </cell>
           <cell r="E41">
             <v>1</v>
@@ -3898,10 +3711,10 @@
             <v>2</v>
           </cell>
           <cell r="H41">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I41" t="str">
-            <v>Skill_Monster_StoneGolem1,NormalAttack</v>
+            <v>Skill_Monster_StoneGolem1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J41" t="str">
             <v>DeathShow_1</v>
@@ -3917,8 +3730,8 @@
           <cell r="C42" t="str">
             <v>ResUnit_StoneGolem2</v>
           </cell>
-          <cell r="D42" t="str">
-            <v>冰冻光线</v>
+          <cell r="D42">
+            <v>1</v>
           </cell>
           <cell r="E42">
             <v>4</v>
@@ -3930,10 +3743,10 @@
             <v>2</v>
           </cell>
           <cell r="H42">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I42" t="str">
-            <v>Skill_Monster_StoneGolem2,InitiativeSkill</v>
+            <v>Skill_Monster_StoneGolem2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J42" t="str">
             <v>DeathShow_1</v>
@@ -3949,8 +3762,8 @@
           <cell r="C43" t="str">
             <v>ResUnit_StoneGolem3</v>
           </cell>
-          <cell r="D43" t="str">
-            <v>火焰冲锋治疗</v>
+          <cell r="D43">
+            <v>10</v>
           </cell>
           <cell r="E43">
             <v>32</v>
@@ -3965,7 +3778,7 @@
             <v>3</v>
           </cell>
           <cell r="I43" t="str">
-            <v>Skill_Monster_StoneGolem3,NormalAttack</v>
+            <v>Skill_Monster_StoneGolem3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J43" t="str">
             <v>DeathShow_1</v>
@@ -3981,8 +3794,8 @@
           <cell r="C44" t="str">
             <v>ResUnit_Scorpid1</v>
           </cell>
-          <cell r="D44" t="str">
-            <v>麻痹防御塔</v>
+          <cell r="D44">
+            <v>1</v>
           </cell>
           <cell r="E44">
             <v>1</v>
@@ -3994,10 +3807,10 @@
             <v>2</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I44" t="str">
-            <v>Skill_Monster_Scorpid1,InitiativeSkill</v>
+            <v>Skill_Monster_Scorpid1,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J44" t="str">
             <v>DeathShow_1</v>
@@ -4013,8 +3826,8 @@
           <cell r="C45" t="str">
             <v>ResUnit_Scorpid2</v>
           </cell>
-          <cell r="D45" t="str">
-            <v>弹射麻痹多个防御塔</v>
+          <cell r="D45">
+            <v>1</v>
           </cell>
           <cell r="E45">
             <v>4</v>
@@ -4026,10 +3839,10 @@
             <v>2</v>
           </cell>
           <cell r="H45">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I45" t="str">
-            <v>Skill_Monster_Scorpid2,InitiativeSkill</v>
+            <v>Skill_Monster_Scorpid2,InitiativeSkill;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J45" t="str">
             <v>DeathShow_1</v>
@@ -4045,8 +3858,8 @@
           <cell r="C46" t="str">
             <v>ResUnit_Scorpid3</v>
           </cell>
-          <cell r="D46" t="str">
-            <v>/</v>
+          <cell r="D46">
+            <v>10</v>
           </cell>
           <cell r="E46">
             <v>32</v>
@@ -4059,6 +3872,9 @@
           </cell>
           <cell r="H46">
             <v>3</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J46" t="str">
             <v>DeathShow_1</v>
@@ -4074,8 +3890,8 @@
           <cell r="C47" t="str">
             <v>ResUnit_Imp1</v>
           </cell>
-          <cell r="D47" t="str">
-            <v>闪现</v>
+          <cell r="D47">
+            <v>1</v>
           </cell>
           <cell r="E47">
             <v>1</v>
@@ -4087,10 +3903,10 @@
             <v>2</v>
           </cell>
           <cell r="H47">
-            <v>1</v>
+            <v>1.6</v>
           </cell>
           <cell r="I47" t="str">
-            <v>Skill_Monster_Imp1,NormalAttack</v>
+            <v>Skill_Monster_Imp1,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J47" t="str">
             <v>DeathShow_1</v>
@@ -4106,8 +3922,8 @@
           <cell r="C48" t="str">
             <v>ResUnit_Imp2</v>
           </cell>
-          <cell r="D48" t="str">
-            <v>群体闪现</v>
+          <cell r="D48">
+            <v>1</v>
           </cell>
           <cell r="E48">
             <v>4</v>
@@ -4119,10 +3935,10 @@
             <v>2</v>
           </cell>
           <cell r="H48">
-            <v>1.25</v>
+            <v>2</v>
           </cell>
           <cell r="I48" t="str">
-            <v>Skill_Monster_Imp2,NormalAttack</v>
+            <v>Skill_Monster_Imp2,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J48" t="str">
             <v>DeathShow_1</v>
@@ -4138,8 +3954,8 @@
           <cell r="C49" t="str">
             <v>ResUnit_Imp3</v>
           </cell>
-          <cell r="D49" t="str">
-            <v>召唤强力单位</v>
+          <cell r="D49">
+            <v>10</v>
           </cell>
           <cell r="E49">
             <v>32</v>
@@ -4154,7 +3970,7 @@
             <v>3</v>
           </cell>
           <cell r="I49" t="str">
-            <v>Skill_Monster_Imp3,NormalAttack</v>
+            <v>Skill_Monster_Imp3,NormalAttack;Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J49" t="str">
             <v>DeathShow_1</v>
@@ -4170,8 +3986,8 @@
           <cell r="C50" t="str">
             <v>ResUnit_Tombstone1</v>
           </cell>
-          <cell r="D50" t="str">
-            <v>召唤骷髅</v>
+          <cell r="D50">
+            <v>1</v>
           </cell>
           <cell r="E50">
             <v>4</v>
@@ -4183,7 +3999,10 @@
             <v>0</v>
           </cell>
           <cell r="H50">
-            <v>1</v>
+            <v>1.6</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J50" t="str">
             <v>DeathShow_1</v>
@@ -4199,8 +4018,8 @@
           <cell r="C51" t="str">
             <v>ResUnit_Bee1</v>
           </cell>
-          <cell r="D51" t="str">
-            <v>/</v>
+          <cell r="D51">
+            <v>1</v>
           </cell>
           <cell r="E51">
             <v>1</v>
@@ -4212,7 +4031,10 @@
             <v>2</v>
           </cell>
           <cell r="H51">
-            <v>1</v>
+            <v>1.6</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
           </cell>
           <cell r="J51" t="str">
             <v>DeathShow_1</v>
@@ -4224,33 +4046,375 @@
             <v>1</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>索引id</v>
+        <row r="54">
+          <cell r="C54">
+            <v>3</v>
+          </cell>
+          <cell r="D54">
+            <v>4</v>
+          </cell>
+          <cell r="E54">
+            <v>5</v>
+          </cell>
+          <cell r="F54">
+            <v>6</v>
+          </cell>
+          <cell r="G54">
+            <v>7</v>
+          </cell>
+          <cell r="H54">
+            <v>8</v>
+          </cell>
+          <cell r="I54">
+            <v>9</v>
+          </cell>
+          <cell r="J54">
+            <v>10</v>
+          </cell>
+          <cell r="K54">
+            <v>11</v>
+          </cell>
+          <cell r="L54">
+            <v>12</v>
+          </cell>
+          <cell r="M54">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>模型id</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>攻击</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>生命</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>物理减免%</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>魔法减免%</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>是否飞行</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>是否隐身</v>
+          </cell>
+          <cell r="J55" t="str">
+            <v>技能列表</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>移速</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>体型</v>
+          </cell>
+          <cell r="M55" t="str">
+            <v>死亡奖励</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>ResUnit_Rou1</v>
+          </cell>
+          <cell r="D56">
+            <v>1</v>
+          </cell>
+          <cell r="E56">
+            <v>1000</v>
+          </cell>
+          <cell r="J56" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
+          </cell>
+          <cell r="K56">
+            <v>1</v>
+          </cell>
+          <cell r="L56">
+            <v>1.5</v>
+          </cell>
+          <cell r="M56">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>ResUnit_ZhiZhu1</v>
+          </cell>
+          <cell r="D57">
+            <v>1</v>
+          </cell>
+          <cell r="E57">
+            <v>500</v>
+          </cell>
+          <cell r="J57" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
+          </cell>
+          <cell r="K57">
+            <v>2</v>
+          </cell>
+          <cell r="L57">
+            <v>1</v>
+          </cell>
+          <cell r="M57">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>ResUnit_WuGui1</v>
+          </cell>
+          <cell r="D58">
+            <v>1</v>
+          </cell>
+          <cell r="E58">
+            <v>1000</v>
+          </cell>
+          <cell r="F58">
+            <v>50</v>
+          </cell>
+          <cell r="J58" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Shield_Physical,PassiveSkill</v>
+          </cell>
+          <cell r="K58">
+            <v>1</v>
+          </cell>
+          <cell r="L58">
+            <v>1.5</v>
+          </cell>
+          <cell r="M58">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>ResUnit_StoneGolem1</v>
+          </cell>
+          <cell r="D59">
+            <v>1</v>
+          </cell>
+          <cell r="E59">
+            <v>1000</v>
+          </cell>
+          <cell r="G59">
+            <v>50</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Shield_Magical,PassiveSkill</v>
+          </cell>
+          <cell r="K59">
+            <v>1</v>
+          </cell>
+          <cell r="L59">
+            <v>1.5</v>
+          </cell>
+          <cell r="M59">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>ResUnit_BianFu1</v>
+          </cell>
+          <cell r="D60">
+            <v>1</v>
+          </cell>
+          <cell r="E60">
+            <v>500</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>是</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Fly,PassiveSkill</v>
+          </cell>
+          <cell r="K60">
+            <v>1</v>
+          </cell>
+          <cell r="L60">
+            <v>1.5</v>
+          </cell>
+          <cell r="M60">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>ResUnit_Gui1</v>
+          </cell>
+          <cell r="D61">
+            <v>1</v>
+          </cell>
+          <cell r="E61">
+            <v>500</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>是</v>
+          </cell>
+          <cell r="J61" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Invisible,PassiveSkill</v>
+          </cell>
+          <cell r="K61">
+            <v>1</v>
+          </cell>
+          <cell r="L61">
+            <v>1.5</v>
+          </cell>
+          <cell r="M61">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>ResUnit_XueRen1</v>
+          </cell>
+          <cell r="D62">
+            <v>1</v>
+          </cell>
+          <cell r="E62">
+            <v>500</v>
+          </cell>
+          <cell r="F62">
+            <v>50</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v>是</v>
+          </cell>
+          <cell r="J62" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Shield_Physical,PassiveSkill;PassiveSkill_Fly,PassiveSkill</v>
+          </cell>
+          <cell r="K62">
+            <v>1</v>
+          </cell>
+          <cell r="L62">
+            <v>1.5</v>
+          </cell>
+          <cell r="M62">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>ResUnit_Spirit1</v>
+          </cell>
+          <cell r="D63">
+            <v>1</v>
+          </cell>
+          <cell r="E63">
+            <v>500</v>
+          </cell>
+          <cell r="F63">
+            <v>50</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>是</v>
+          </cell>
+          <cell r="J63" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Shield_Physical,PassiveSkill;PassiveSkill_Invisible,PassiveSkill</v>
+          </cell>
+          <cell r="K63">
+            <v>1</v>
+          </cell>
+          <cell r="L63">
+            <v>1.5</v>
+          </cell>
+          <cell r="M63">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>ResUnit_Imp1</v>
+          </cell>
+          <cell r="D64">
+            <v>1</v>
+          </cell>
+          <cell r="E64">
+            <v>500</v>
+          </cell>
+          <cell r="G64">
+            <v>50</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>是</v>
+          </cell>
+          <cell r="J64" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Shield_Magical,PassiveSkill;PassiveSkill_Fly,PassiveSkill</v>
+          </cell>
+          <cell r="K64">
+            <v>1</v>
+          </cell>
+          <cell r="L64">
+            <v>1.5</v>
+          </cell>
+          <cell r="M64">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>ResUnit_MiFeng1</v>
+          </cell>
+          <cell r="D65">
+            <v>1</v>
+          </cell>
+          <cell r="E65">
+            <v>500</v>
+          </cell>
+          <cell r="G65">
+            <v>50</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v>是</v>
+          </cell>
+          <cell r="J65" t="str">
+            <v>Skill_MeleeAttack,BlockSkill;PassiveSkill_Shield_Magical,PassiveSkill;PassiveSkill_Invisible,PassiveSkill</v>
+          </cell>
+          <cell r="K65">
+            <v>1</v>
+          </cell>
+          <cell r="L65">
+            <v>1.5</v>
+          </cell>
+          <cell r="M65">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>ResUnit_Gui3</v>
+          </cell>
+          <cell r="D66">
+            <v>1</v>
+          </cell>
+          <cell r="E66">
+            <v>10000</v>
+          </cell>
+          <cell r="J66" t="str">
+            <v>Skill_MeleeAttack,BlockSkill</v>
+          </cell>
+          <cell r="K66">
+            <v>0.5</v>
+          </cell>
+          <cell r="L66">
+            <v>3</v>
+          </cell>
+          <cell r="M66">
+            <v>100</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>索引id</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>ResUnit id</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4514,23 +4678,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4566,7 +4733,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4592,7 +4759,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4628,7 +4795,7 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -4656,7 +4823,7 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -4692,2300 +4859,2792 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>208</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
         <v>209</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
         <v>211</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
         <v>213</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>1.5</v>
+      </c>
+      <c r="F43" t="s">
         <v>215</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="G43" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <v>1.5</v>
+      </c>
+      <c r="F44" t="s">
         <v>217</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>1.5</v>
+      </c>
+      <c r="F45" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="G45" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="G46" t="s">
+        <v>220</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>527</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>518</v>
+      </c>
+      <c r="G48" t="s">
+        <v>527</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>519</v>
+      </c>
+      <c r="G49" t="s">
+        <v>528</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>520</v>
+      </c>
+      <c r="G50" t="s">
+        <v>529</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G51" t="s">
+        <v>530</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>522</v>
+      </c>
+      <c r="G52" t="s">
+        <v>531</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" t="s">
+        <v>532</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" t="s">
+        <v>533</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" t="s">
+        <v>534</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="G56" t="s">
+        <v>535</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>536</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="G57" t="s">
+        <v>536</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>537</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G58" t="s">
+        <v>537</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>538</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="G59" t="s">
+        <v>538</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>539</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G60" t="s">
+        <v>539</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>540</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="G61" t="s">
+        <v>540</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>541</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
         <v>243</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="G62" t="s">
+        <v>541</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>542</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="G63" t="s">
+        <v>542</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>543</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
         <v>245</v>
       </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="G64" t="s">
+        <v>543</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>544</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="G65" t="s">
+        <v>544</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>545</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
         <v>247</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G66" t="s">
+        <v>545</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>546</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="G67" t="s">
+        <v>546</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>547</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
         <v>249</v>
       </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="G68" t="s">
+        <v>547</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>548</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="G69" t="s">
+        <v>548</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>549</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
         <v>251</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="G70" t="s">
+        <v>549</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>550</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="G71" t="s">
+        <v>550</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>551</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
         <v>253</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="G72" t="s">
+        <v>551</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>552</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37">
-        <v>1.5</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38">
-        <v>1.5</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39">
-        <v>1.5</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="G73" t="s">
+        <v>552</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>553</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
         <v>267</v>
       </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="G74" t="s">
+        <v>553</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>554</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="G75" t="s">
+        <v>554</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>555</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
         <v>269</v>
       </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="G76" t="s">
+        <v>555</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>556</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="G77" t="s">
+        <v>556</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>557</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
         <v>271</v>
       </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>279</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>291</v>
-      </c>
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>293</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>297</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>303</v>
-      </c>
-      <c r="C59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>307</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>311</v>
-      </c>
-      <c r="C63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>313</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64">
-        <v>6</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>315</v>
-      </c>
-      <c r="C65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65">
-        <v>6</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>317</v>
-      </c>
-      <c r="C66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66">
-        <v>6</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C67" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>321</v>
-      </c>
-      <c r="C68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>323</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>325</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C71" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71">
-        <v>6</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>329</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="G78" t="s">
+        <v>557</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E72">
-        <v>6</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>331</v>
-      </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74">
-        <v>6</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75">
-        <v>6</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76">
-        <v>6</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>339</v>
-      </c>
-      <c r="C77" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77">
-        <v>6</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>556</v>
-      </c>
-      <c r="C78" t="s">
-        <v>562</v>
-      </c>
-      <c r="E78">
-        <v>6</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>558</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" t="s">
+        <v>558</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>559</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" t="s">
+        <v>559</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>560</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" t="s">
+        <v>560</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>561</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" t="s">
+        <v>561</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>562</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>276</v>
+      </c>
+      <c r="G83" t="s">
+        <v>562</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>563</v>
       </c>
-      <c r="E79">
-        <v>6</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>560</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="C84" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84" t="s">
+        <v>563</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>564</v>
       </c>
-      <c r="E80">
-        <v>6</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C85" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" t="s">
+        <v>564</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>565</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>279</v>
+      </c>
+      <c r="G86" t="s">
+        <v>565</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>280</v>
+      </c>
+      <c r="G87" t="s">
+        <v>566</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>567</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" t="s">
+        <v>567</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>568</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>282</v>
+      </c>
+      <c r="G89" t="s">
+        <v>568</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>569</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>283</v>
+      </c>
+      <c r="G90" t="s">
+        <v>569</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>570</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" t="s">
+        <v>570</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>571</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>344</v>
+      </c>
+      <c r="G92" t="s">
+        <v>571</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>345</v>
+      </c>
+      <c r="G93" t="s">
+        <v>572</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>573</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>346</v>
+      </c>
+      <c r="G94" t="s">
+        <v>573</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>574</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>380</v>
+      </c>
+      <c r="G95" t="s">
+        <v>574</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>381</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>382</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>229</v>
+      </c>
+      <c r="G99" t="s">
+        <v>228</v>
+      </c>
+      <c r="H99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100" t="s">
+        <v>230</v>
+      </c>
+      <c r="H100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>233</v>
+      </c>
+      <c r="G101" t="s">
+        <v>232</v>
+      </c>
+      <c r="H101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>238</v>
+      </c>
+      <c r="G102" t="s">
+        <v>237</v>
+      </c>
+      <c r="H102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>242</v>
+      </c>
+      <c r="G104" t="s">
+        <v>241</v>
+      </c>
+      <c r="H104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>256</v>
+      </c>
+      <c r="G105" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>258</v>
+      </c>
+      <c r="G106" t="s">
+        <v>257</v>
+      </c>
+      <c r="H106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>260</v>
+      </c>
+      <c r="G107" t="s">
+        <v>259</v>
+      </c>
+      <c r="H107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>262</v>
+      </c>
+      <c r="G108" t="s">
+        <v>261</v>
+      </c>
+      <c r="H108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>264</v>
+      </c>
+      <c r="G109" t="s">
+        <v>263</v>
+      </c>
+      <c r="H109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>266</v>
+      </c>
+      <c r="G110" t="s">
+        <v>265</v>
+      </c>
+      <c r="H110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>398</v>
+      </c>
+      <c r="C111" t="s">
+        <v>404</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>399</v>
+      </c>
+      <c r="G111" t="s">
+        <v>398</v>
+      </c>
+      <c r="H111" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" t="s">
+        <v>405</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>401</v>
+      </c>
+      <c r="G112" t="s">
+        <v>400</v>
+      </c>
+      <c r="H112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>402</v>
+      </c>
+      <c r="C113" t="s">
+        <v>406</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>403</v>
+      </c>
+      <c r="G113" t="s">
+        <v>402</v>
+      </c>
+      <c r="H113" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>73</v>
       </c>
-      <c r="E81">
-        <v>6</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>343</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="C114" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E82">
-        <v>6</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>345</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>285</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>75</v>
       </c>
-      <c r="E83">
-        <v>6</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>347</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="C115" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E84">
-        <v>6</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>349</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>286</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>77</v>
       </c>
-      <c r="E85">
-        <v>6</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>351</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="C116" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E86">
-        <v>6</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>353</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>287</v>
+      </c>
+      <c r="G116" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>79</v>
       </c>
-      <c r="E87">
-        <v>6</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>355</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="C117" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E88">
-        <v>6</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>357</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>288</v>
+      </c>
+      <c r="G117" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>81</v>
       </c>
-      <c r="E89">
-        <v>6</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>359</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="C118" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E90">
-        <v>6</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>361</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>289</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>83</v>
       </c>
-      <c r="E91">
-        <v>6</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>363</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="C119" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E92">
-        <v>6</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>290</v>
+      </c>
+      <c r="G119" t="s">
+        <v>81</v>
+      </c>
+      <c r="H119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>85</v>
       </c>
-      <c r="E93">
-        <v>6</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>367</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="C120" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E94">
-        <v>6</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>369</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>291</v>
+      </c>
+      <c r="G120" t="s">
+        <v>83</v>
+      </c>
+      <c r="H120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>87</v>
       </c>
-      <c r="E95">
-        <v>6</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>371</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C121" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E96">
-        <v>6</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>373</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>292</v>
+      </c>
+      <c r="G121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>89</v>
       </c>
-      <c r="E97">
-        <v>6</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>375</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="C122" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E98">
-        <v>6</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>377</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>293</v>
+      </c>
+      <c r="G122" t="s">
+        <v>87</v>
+      </c>
+      <c r="H122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>91</v>
       </c>
-      <c r="E99">
-        <v>6</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>379</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="C123" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E100">
-        <v>6</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>381</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>294</v>
+      </c>
+      <c r="G123" t="s">
+        <v>89</v>
+      </c>
+      <c r="H123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>93</v>
       </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="C124" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>295</v>
+      </c>
+      <c r="G124" t="s">
+        <v>91</v>
+      </c>
+      <c r="H124" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G125" t="s">
+        <v>93</v>
+      </c>
+      <c r="H125" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>297</v>
+      </c>
+      <c r="G126" t="s">
+        <v>95</v>
+      </c>
+      <c r="H126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>298</v>
+      </c>
+      <c r="G127" t="s">
+        <v>97</v>
+      </c>
+      <c r="H127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>299</v>
+      </c>
+      <c r="G128" t="s">
+        <v>99</v>
+      </c>
+      <c r="H128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>300</v>
+      </c>
+      <c r="G129" t="s">
+        <v>101</v>
+      </c>
+      <c r="H129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>301</v>
+      </c>
+      <c r="G130" t="s">
+        <v>103</v>
+      </c>
+      <c r="H130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>302</v>
+      </c>
+      <c r="G131" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>303</v>
+      </c>
+      <c r="G132" t="s">
+        <v>107</v>
+      </c>
+      <c r="H132" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>304</v>
+      </c>
+      <c r="G133" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>305</v>
+      </c>
+      <c r="G134" t="s">
+        <v>111</v>
+      </c>
+      <c r="H134" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>306</v>
+      </c>
+      <c r="G135" t="s">
+        <v>113</v>
+      </c>
+      <c r="H135" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>307</v>
+      </c>
+      <c r="G136" t="s">
+        <v>115</v>
+      </c>
+      <c r="H136" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>308</v>
+      </c>
+      <c r="G137" t="s">
+        <v>117</v>
+      </c>
+      <c r="H137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>309</v>
+      </c>
+      <c r="G138" t="s">
+        <v>119</v>
+      </c>
+      <c r="H138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>310</v>
+      </c>
+      <c r="G139" t="s">
+        <v>121</v>
+      </c>
+      <c r="H139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>311</v>
+      </c>
+      <c r="G140" t="s">
+        <v>123</v>
+      </c>
+      <c r="H140" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>312</v>
+      </c>
+      <c r="G141" t="s">
+        <v>125</v>
+      </c>
+      <c r="H141" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>313</v>
+      </c>
+      <c r="G142" t="s">
+        <v>127</v>
+      </c>
+      <c r="H142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>314</v>
+      </c>
+      <c r="G143" t="s">
+        <v>129</v>
+      </c>
+      <c r="H143" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C102" t="s">
-        <v>94</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-      <c r="F102" s="5" t="s">
+      <c r="C144" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>389</v>
+      </c>
+      <c r="G144" t="s">
+        <v>131</v>
+      </c>
+      <c r="H144" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="C145" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>390</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H145" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C103" t="s">
-        <v>95</v>
-      </c>
-      <c r="E103">
-        <v>6</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>387</v>
-      </c>
-      <c r="C104" t="s">
-        <v>96</v>
-      </c>
-      <c r="E104">
-        <v>6</v>
-      </c>
-      <c r="F104" s="5" t="s">
+      <c r="C146" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>389</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="E105">
-        <v>6</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="E106">
-        <v>6</v>
-      </c>
-      <c r="F106" s="5" t="s">
+      <c r="G146" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H146" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="7" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="C147" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E147">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>395</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="E107">
-        <v>6</v>
-      </c>
-      <c r="F107" s="5" t="s">
+      <c r="C148" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E148">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>396</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H148" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" s="7" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>395</v>
-      </c>
-      <c r="C108" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108">
-        <v>6</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="C149" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
         <v>397</v>
       </c>
-      <c r="C109" t="s">
-        <v>98</v>
-      </c>
-      <c r="E109">
-        <v>6</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>399</v>
-      </c>
-      <c r="C110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110">
-        <v>6</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>401</v>
-      </c>
-      <c r="C111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111">
-        <v>6</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>403</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
-      </c>
-      <c r="E112">
-        <v>6</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>405</v>
-      </c>
-      <c r="C113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113">
-        <v>6</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>407</v>
-      </c>
-      <c r="C114" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114">
-        <v>6</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>409</v>
-      </c>
-      <c r="C115" t="s">
-        <v>104</v>
-      </c>
-      <c r="E115">
-        <v>6</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>411</v>
-      </c>
-      <c r="C116" t="s">
-        <v>105</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>413</v>
-      </c>
-      <c r="C117" t="s">
-        <v>106</v>
-      </c>
-      <c r="E117">
-        <v>6</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>415</v>
-      </c>
-      <c r="C118" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118">
-        <v>6</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>417</v>
-      </c>
-      <c r="C119" t="s">
-        <v>108</v>
-      </c>
-      <c r="E119">
-        <v>6</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>419</v>
-      </c>
-      <c r="C120" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120">
-        <v>6</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>421</v>
-      </c>
-      <c r="C121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121">
-        <v>6</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>423</v>
-      </c>
-      <c r="C122" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>425</v>
-      </c>
-      <c r="C123" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123">
-        <v>6</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>427</v>
-      </c>
-      <c r="C124" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>429</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="G149" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H149" t="s">
         <v>114</v>
       </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>431</v>
-      </c>
-      <c r="C126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126">
-        <v>6</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>433</v>
-      </c>
-      <c r="C127" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127">
-        <v>6</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E128">
-        <v>6</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="E129">
-        <v>6</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E130">
-        <v>6</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E131">
-        <v>6</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="E132">
-        <v>6</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E133">
-        <v>6</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E134">
-        <v>6</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>118</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E136">
-        <v>6</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>120</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E137">
-        <v>6</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E138">
-        <v>6</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>124</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E139">
-        <v>6</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>126</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140">
-        <v>6</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>128</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E141">
-        <v>6</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>130</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E142">
-        <v>6</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>132</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E143">
-        <v>6</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>134</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E144">
-        <v>6</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>136</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145">
-        <v>6</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>138</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E146">
-        <v>6</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>140</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E147">
-        <v>6</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>142</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E148">
-        <v>6</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>144</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E149">
-        <v>6</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>146</v>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="12" t="s">
+        <v>594</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>147</v>
+        <v>597</v>
       </c>
       <c r="E150">
         <v>6</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>148</v>
+      <c r="F150" t="s">
+        <v>229</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" s="12" t="s">
+        <v>595</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>149</v>
+        <v>598</v>
       </c>
       <c r="E151">
         <v>6</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>150</v>
+      <c r="F151" t="s">
+        <v>231</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="12" t="s">
+        <v>596</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>151</v>
+        <v>599</v>
       </c>
       <c r="E152">
         <v>6</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>152</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E153">
-        <v>6</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E154">
-        <v>6</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>156</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E155">
-        <v>6</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>158</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E156">
-        <v>6</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157">
-        <v>6</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>162</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E158">
-        <v>6</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>164</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E159">
-        <v>6</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>166</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E160">
-        <v>6</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>168</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E161">
-        <v>6</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>170</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E162">
-        <v>6</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E163">
-        <v>6</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>174</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E164">
-        <v>6</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>176</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E165">
-        <v>6</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="E166">
-        <v>6</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E167">
-        <v>6</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="E168">
-        <v>6</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E169">
-        <v>6</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E170">
-        <v>6</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E171">
-        <v>6</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="6"/>
-      <c r="F172" s="5"/>
+      <c r="F152" t="s">
+        <v>233</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>599</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="B86:B88">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B94 B48:B85">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B97">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86:G88">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89:G94 G48:G85">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:G97">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6993,26 +7652,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480920DC-50A1-48D1-B3C4-48B552680BCC}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E58"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7050,7 +7709,7 @@
       <c r="W1"/>
       <c r="X1"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +7737,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -7116,7 +7775,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -7146,7 +7805,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -7184,9 +7843,9 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -7196,12 +7855,12 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -7211,12 +7870,12 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -7226,12 +7885,12 @@
         <v>0.8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -7241,12 +7900,12 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -7256,12 +7915,12 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -7271,12 +7930,12 @@
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -7286,12 +7945,12 @@
         <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -7301,12 +7960,12 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -7316,12 +7975,12 @@
         <v>0.8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -7331,668 +7990,675 @@
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E16">
         <f>_xlfn.IFNA(VLOOKUP(B16,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <f>_xlfn.IFNA(VLOOKUP(B17,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="E18">
         <f>_xlfn.IFNA(VLOOKUP(B18,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <f>_xlfn.IFNA(VLOOKUP(B19,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E20">
         <f>_xlfn.IFNA(VLOOKUP(B20,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="E21">
         <f>_xlfn.IFNA(VLOOKUP(B21,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="E22">
         <f>_xlfn.IFNA(VLOOKUP(B22,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="E23">
         <f>_xlfn.IFNA(VLOOKUP(B23,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>485</v>
+        <v>333</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>488</v>
+        <v>336</v>
       </c>
       <c r="E24">
         <f>_xlfn.IFNA(VLOOKUP(B24,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>486</v>
+        <v>334</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>489</v>
+        <v>337</v>
       </c>
       <c r="E25">
         <f>_xlfn.IFNA(VLOOKUP(B25,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>487</v>
+        <v>335</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>490</v>
+        <v>338</v>
       </c>
       <c r="E26">
         <f>_xlfn.IFNA(VLOOKUP(B26,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>504</v>
+        <v>349</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="E27">
-        <f>_xlfn.IFNA(VLOOKUP(B27,[1]怪物!$C:$M,5,FALSE),1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>505</v>
+        <v>350</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="E28">
         <f>_xlfn.IFNA(VLOOKUP(B28,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="E29">
         <f>_xlfn.IFNA(VLOOKUP(B29,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F29" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>507</v>
+        <v>352</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="E30">
         <f>_xlfn.IFNA(VLOOKUP(B30,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>508</v>
+        <v>353</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="E31">
         <f>_xlfn.IFNA(VLOOKUP(B31,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>509</v>
+        <v>354</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="E32">
         <f>_xlfn.IFNA(VLOOKUP(B32,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F32" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
       <c r="E33">
         <f>_xlfn.IFNA(VLOOKUP(B33,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="E34">
         <f>_xlfn.IFNA(VLOOKUP(B34,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="E35">
         <f>_xlfn.IFNA(VLOOKUP(B35,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F35" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>604</v>
+        <v>446</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>607</v>
+        <v>449</v>
       </c>
       <c r="E36">
         <f>_xlfn.IFNA(VLOOKUP(B36,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>605</v>
+        <v>447</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>608</v>
+        <v>450</v>
       </c>
       <c r="E37">
         <f>_xlfn.IFNA(VLOOKUP(B37,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>606</v>
+        <v>448</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>609</v>
+        <v>451</v>
       </c>
       <c r="E38">
         <f>_xlfn.IFNA(VLOOKUP(B38,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>629</v>
+        <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>614</v>
+        <v>455</v>
       </c>
       <c r="E39">
         <f>_xlfn.IFNA(VLOOKUP(B39,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>645</v>
+        <v>486</v>
       </c>
       <c r="R39"/>
     </row>
-    <row r="40" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
-        <v>630</v>
+        <v>471</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>615</v>
+        <v>456</v>
       </c>
       <c r="E40">
         <f>_xlfn.IFNA(VLOOKUP(B40,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>646</v>
+        <v>487</v>
       </c>
       <c r="O40" s="13"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>631</v>
+        <v>472</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>616</v>
+        <v>457</v>
       </c>
       <c r="E41">
         <f>_xlfn.IFNA(VLOOKUP(B41,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>647</v>
+        <v>488</v>
       </c>
       <c r="R41"/>
     </row>
-    <row r="42" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>632</v>
+        <v>473</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>617</v>
+        <v>458</v>
       </c>
       <c r="E42">
         <f>_xlfn.IFNA(VLOOKUP(B42,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>648</v>
+        <v>489</v>
       </c>
       <c r="R42"/>
     </row>
-    <row r="43" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>633</v>
+        <v>474</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>618</v>
+        <v>459</v>
       </c>
       <c r="E43">
         <f>_xlfn.IFNA(VLOOKUP(B43,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>649</v>
+        <v>490</v>
       </c>
       <c r="R43"/>
     </row>
-    <row r="44" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>634</v>
+        <v>475</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>619</v>
+        <v>460</v>
       </c>
       <c r="E44">
         <f>_xlfn.IFNA(VLOOKUP(B44,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>650</v>
+        <v>491</v>
       </c>
       <c r="R44"/>
     </row>
-    <row r="45" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>635</v>
+        <v>476</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>620</v>
+        <v>461</v>
       </c>
       <c r="E45">
         <f>_xlfn.IFNA(VLOOKUP(B45,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>651</v>
+        <v>492</v>
       </c>
       <c r="R45"/>
     </row>
-    <row r="46" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
-        <v>636</v>
+        <v>477</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>621</v>
+        <v>462</v>
       </c>
       <c r="E46">
         <f>_xlfn.IFNA(VLOOKUP(B46,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>652</v>
+        <v>493</v>
       </c>
       <c r="R46"/>
     </row>
-    <row r="47" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>637</v>
+        <v>478</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>622</v>
+        <v>463</v>
       </c>
       <c r="E47">
         <f>_xlfn.IFNA(VLOOKUP(B47,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>653</v>
+        <v>494</v>
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>638</v>
+        <v>479</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>623</v>
+        <v>464</v>
       </c>
       <c r="E48">
         <f>_xlfn.IFNA(VLOOKUP(B48,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>654</v>
+        <v>495</v>
       </c>
       <c r="R48"/>
     </row>
-    <row r="49" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>639</v>
+        <v>480</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>624</v>
+        <v>465</v>
       </c>
       <c r="E49">
         <f>_xlfn.IFNA(VLOOKUP(B49,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>655</v>
+        <v>496</v>
       </c>
       <c r="R49"/>
     </row>
-    <row r="50" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>640</v>
+        <v>481</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>625</v>
+        <v>466</v>
       </c>
       <c r="E50">
         <f>_xlfn.IFNA(VLOOKUP(B50,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>656</v>
+        <v>497</v>
       </c>
       <c r="R50"/>
     </row>
-    <row r="51" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>641</v>
+        <v>482</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>626</v>
+        <v>467</v>
       </c>
       <c r="E51">
         <f>_xlfn.IFNA(VLOOKUP(B51,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>657</v>
+        <v>498</v>
       </c>
       <c r="R51"/>
     </row>
-    <row r="52" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
-        <v>642</v>
+        <v>483</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>627</v>
+        <v>468</v>
       </c>
       <c r="E52">
         <f>_xlfn.IFNA(VLOOKUP(B52,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>658</v>
+        <v>499</v>
       </c>
       <c r="R52"/>
     </row>
-    <row r="53" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>628</v>
+        <v>469</v>
       </c>
       <c r="E53">
         <f>_xlfn.IFNA(VLOOKUP(B53,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0.8</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>659</v>
+        <v>500</v>
       </c>
       <c r="R53"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
-        <v>669</v>
+        <v>510</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>672</v>
+        <v>513</v>
       </c>
       <c r="E54">
         <f>_xlfn.IFNA(VLOOKUP(B54,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>660</v>
+        <v>501</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>612</v>
+        <v>454</v>
       </c>
       <c r="E55">
         <f>_xlfn.IFNA(VLOOKUP(B55,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
-        <v>661</v>
+        <v>502</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>662</v>
+        <v>503</v>
       </c>
       <c r="E56">
         <f>_xlfn.IFNA(VLOOKUP(B56,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
-        <v>664</v>
+        <v>505</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>665</v>
+        <v>506</v>
       </c>
       <c r="E57">
         <f>_xlfn.IFNA(VLOOKUP(B57,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>668</v>
+        <v>509</v>
       </c>
       <c r="C58" t="s">
-        <v>667</v>
+        <v>508</v>
       </c>
       <c r="E58">
         <f>_xlfn.IFNA(VLOOKUP(B58,[1]怪物!$C:$M,5,FALSE),1)</f>
         <v>2</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>671</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -8010,16 +8676,16 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8039,7 +8705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8049,7 +8715,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -8069,7 +8735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -8081,7 +8747,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -8101,192 +8767,192 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>571</v>
+        <v>413</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>580</v>
+        <v>422</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>581</v>
+        <v>423</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>572</v>
+        <v>414</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>582</v>
+        <v>424</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>573</v>
+        <v>415</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>584</v>
+        <v>426</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>585</v>
+        <v>427</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>574</v>
+        <v>416</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>586</v>
+        <v>428</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>587</v>
+        <v>429</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>588</v>
+        <v>430</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>589</v>
+        <v>431</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>576</v>
+        <v>418</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>590</v>
+        <v>432</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>591</v>
+        <v>433</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>577</v>
+        <v>419</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>592</v>
+        <v>434</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>593</v>
+        <v>435</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>578</v>
+        <v>420</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>594</v>
+        <v>436</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>595</v>
+        <v>437</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>579</v>
+        <v>421</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>596</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>597</v>
+        <v>439</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>602</v>
+        <v>444</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>584</v>
+        <v>426</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>601</v>
+        <v>443</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>569</v>
+        <v>411</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>570</v>
+        <v>412</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>568</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
